--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_2_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_2_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1672444.164000509</v>
+        <v>1670749.305766615</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>80.83011447495538</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -704,10 +704,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5810588664029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>49.46824307659014</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -859,10 +859,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80.83011447495538</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>82.05707201220442</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>124.3991006813875</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>147.2379120664689</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>50.29171516770226</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1218,22 +1218,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>114.0178246761552</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>7.837102735344149</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>357.7795714149543</v>
       </c>
       <c r="C11" t="n">
-        <v>340.3186215224813</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>206.4816381071915</v>
+        <v>329.7287713721566</v>
       </c>
       <c r="E11" t="n">
         <v>356.9760998237355</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>381.9217754931851</v>
       </c>
       <c r="G11" t="n">
-        <v>387.9966247312783</v>
+        <v>387.9966247312782</v>
       </c>
       <c r="H11" t="n">
-        <v>290.4347245022875</v>
+        <v>290.4347245022874</v>
       </c>
       <c r="I11" t="n">
-        <v>94.8522099785506</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>187.8463886171958</v>
       </c>
       <c r="U11" t="n">
-        <v>226.2032352564838</v>
+        <v>226.2032352564837</v>
       </c>
       <c r="V11" t="n">
         <v>302.7979882216086</v>
       </c>
       <c r="W11" t="n">
-        <v>324.2866984688868</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>344.7768304299428</v>
+        <v>344.7768304299427</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>254.2886212117682</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I12" t="n">
-        <v>46.07197699567761</v>
+        <v>46.07197699567762</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.02995793686991</v>
+        <v>22.02995793686992</v>
       </c>
       <c r="S12" t="n">
         <v>148.3099331995005</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>154.877709933411</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>120.466777774405</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>127.8933879574564</v>
       </c>
       <c r="I13" t="n">
-        <v>84.42847734615326</v>
+        <v>98.77081274701507</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>198.4837816320203</v>
+        <v>89.77547109919261</v>
       </c>
       <c r="U13" t="n">
-        <v>261.3072160754404</v>
+        <v>261.3072160754403</v>
       </c>
       <c r="V13" t="n">
         <v>227.1833730753017</v>
       </c>
       <c r="W13" t="n">
-        <v>261.5687280880647</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>193.6303831035685</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>357.7795714149543</v>
       </c>
       <c r="C14" t="n">
-        <v>340.3186215224813</v>
+        <v>340.3186215224812</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>329.7287713721566</v>
       </c>
       <c r="E14" t="n">
         <v>356.9760998237355</v>
       </c>
       <c r="F14" t="n">
-        <v>381.9217754931852</v>
+        <v>381.9217754931851</v>
       </c>
       <c r="G14" t="n">
-        <v>387.9966247312783</v>
+        <v>387.9966247312782</v>
       </c>
       <c r="H14" t="n">
-        <v>290.4347245022875</v>
+        <v>290.4347245022874</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>94.8522099785506</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.4731875638753</v>
       </c>
       <c r="T14" t="n">
-        <v>102.6512156225849</v>
+        <v>27.45431028898837</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>226.2032352564837</v>
       </c>
       <c r="V14" t="n">
         <v>302.7979882216086</v>
       </c>
       <c r="W14" t="n">
-        <v>324.2866984688868</v>
+        <v>324.2866984688867</v>
       </c>
       <c r="X14" t="n">
-        <v>344.7768304299428</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>361.2836684075273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I15" t="n">
-        <v>46.07197699567761</v>
+        <v>46.07197699567762</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.02995793686991</v>
+        <v>22.02995793686993</v>
       </c>
       <c r="S15" t="n">
         <v>148.3099331995005</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>154.877709933411</v>
       </c>
       <c r="C16" t="n">
         <v>142.2925508501015</v>
       </c>
       <c r="D16" t="n">
-        <v>123.6612027696861</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>121.4796923980429</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>104.9044813177993</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>180.6773288969401</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>198.4837816320203</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>227.1833730753017</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>261.5687280880647</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>200.7553851405109</v>
+        <v>200.7553851405108</v>
       </c>
       <c r="Y16" t="n">
-        <v>76.49742166967746</v>
+        <v>171.4471162206023</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705757</v>
       </c>
       <c r="C17" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781027</v>
       </c>
       <c r="D17" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277781</v>
       </c>
       <c r="E17" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793569</v>
       </c>
       <c r="F17" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488066</v>
       </c>
       <c r="G17" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868997</v>
       </c>
       <c r="H17" t="n">
-        <v>232.671219357909</v>
+        <v>232.6712193579089</v>
       </c>
       <c r="I17" t="n">
-        <v>37.08870483417212</v>
+        <v>37.08870483417208</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>72.70968241949684</v>
+        <v>72.7096824194968</v>
       </c>
       <c r="T17" t="n">
         <v>130.0828834728173</v>
       </c>
       <c r="U17" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121052</v>
       </c>
       <c r="V17" t="n">
-        <v>245.0344830772302</v>
+        <v>245.03448307723</v>
       </c>
       <c r="W17" t="n">
-        <v>266.5231933245083</v>
+        <v>266.5231933245082</v>
       </c>
       <c r="X17" t="n">
-        <v>287.0133252855643</v>
+        <v>287.0133252855642</v>
       </c>
       <c r="Y17" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631487</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I18" t="n">
-        <v>46.07197699567761</v>
+        <v>46.07197699567762</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.02995793686991</v>
+        <v>22.02995793686993</v>
       </c>
       <c r="S18" t="n">
         <v>148.3099331995005</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.11420478903254</v>
+        <v>97.11420478903246</v>
       </c>
       <c r="C19" t="n">
-        <v>18.87719512345332</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.8976976253076</v>
+        <v>65.89769762530752</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>63.71618725366433</v>
       </c>
       <c r="F19" t="n">
-        <v>62.70327263002649</v>
+        <v>62.7032726300264</v>
       </c>
       <c r="G19" t="n">
-        <v>84.21824836927563</v>
+        <v>84.21824836927554</v>
       </c>
       <c r="H19" t="n">
-        <v>70.129882813078</v>
+        <v>70.12988281307793</v>
       </c>
       <c r="I19" t="n">
-        <v>41.00730760263663</v>
+        <v>41.00730760263657</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.14097617342081</v>
+        <v>47.14097617342075</v>
       </c>
       <c r="S19" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525616</v>
       </c>
       <c r="T19" t="n">
-        <v>140.7202764876419</v>
+        <v>140.7202764876418</v>
       </c>
       <c r="U19" t="n">
-        <v>203.5437109310619</v>
+        <v>203.5437109310618</v>
       </c>
       <c r="V19" t="n">
-        <v>169.4198679309233</v>
+        <v>169.4198679309231</v>
       </c>
       <c r="W19" t="n">
-        <v>203.8052229436863</v>
+        <v>203.8052229436861</v>
       </c>
       <c r="X19" t="n">
-        <v>142.9918799961324</v>
+        <v>98.15288786592231</v>
       </c>
       <c r="Y19" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591899</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705757</v>
       </c>
       <c r="C20" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781027</v>
       </c>
       <c r="D20" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277781</v>
       </c>
       <c r="E20" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793569</v>
       </c>
       <c r="F20" t="n">
         <v>324.1582703488066</v>
       </c>
       <c r="G20" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868997</v>
       </c>
       <c r="H20" t="n">
         <v>232.6712193579089</v>
       </c>
       <c r="I20" t="n">
-        <v>37.08870483417206</v>
+        <v>37.08870483417208</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>168.4397301121052</v>
       </c>
       <c r="V20" t="n">
-        <v>245.0344830772301</v>
+        <v>245.03448307723</v>
       </c>
       <c r="W20" t="n">
         <v>266.5231933245082</v>
@@ -2147,7 +2147,7 @@
         <v>287.0133252855642</v>
       </c>
       <c r="Y20" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631487</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I21" t="n">
-        <v>46.07197699567761</v>
+        <v>46.07197699567762</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.02995793686991</v>
+        <v>22.02995793686993</v>
       </c>
       <c r="S21" t="n">
         <v>148.3099331995005</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.11420478903248</v>
+        <v>97.11420478903246</v>
       </c>
       <c r="C22" t="n">
-        <v>84.52904570572302</v>
+        <v>84.52904570572299</v>
       </c>
       <c r="D22" t="n">
-        <v>65.89769762530754</v>
+        <v>65.89769762530752</v>
       </c>
       <c r="E22" t="n">
-        <v>63.71618725366436</v>
+        <v>63.71618725366433</v>
       </c>
       <c r="F22" t="n">
-        <v>62.70327263002643</v>
+        <v>62.7032726300264</v>
       </c>
       <c r="G22" t="n">
-        <v>84.21824836927557</v>
+        <v>84.21824836927554</v>
       </c>
       <c r="H22" t="n">
-        <v>70.12988281307796</v>
+        <v>70.12988281307793</v>
       </c>
       <c r="I22" t="n">
-        <v>41.00730760263658</v>
+        <v>41.00730760263657</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.14097617342076</v>
+        <v>47.14097617342075</v>
       </c>
       <c r="S22" t="n">
         <v>122.9138237525616</v>
@@ -2296,16 +2296,16 @@
         <v>203.5437109310618</v>
       </c>
       <c r="V22" t="n">
-        <v>169.4198679309232</v>
+        <v>40.05183009499017</v>
       </c>
       <c r="W22" t="n">
-        <v>74.43718510775322</v>
+        <v>203.8052229436861</v>
       </c>
       <c r="X22" t="n">
-        <v>142.9918799961324</v>
+        <v>142.9918799961323</v>
       </c>
       <c r="Y22" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591899</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300.0160662705757</v>
+        <v>300.0160662705758</v>
       </c>
       <c r="C23" t="n">
-        <v>282.5551163781027</v>
+        <v>282.5551163781028</v>
       </c>
       <c r="D23" t="n">
-        <v>271.9652662277781</v>
+        <v>271.9652662277782</v>
       </c>
       <c r="E23" t="n">
-        <v>299.2125946793569</v>
+        <v>299.212594679357</v>
       </c>
       <c r="F23" t="n">
         <v>324.1582703488066</v>
       </c>
       <c r="G23" t="n">
-        <v>330.2331195868997</v>
+        <v>330.2331195868998</v>
       </c>
       <c r="H23" t="n">
         <v>232.6712193579089</v>
       </c>
       <c r="I23" t="n">
-        <v>37.08870483417208</v>
+        <v>37.08870483417213</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>72.70968241949679</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T23" t="n">
         <v>130.0828834728173</v>
       </c>
       <c r="U23" t="n">
-        <v>168.4397301121052</v>
+        <v>168.4397301121053</v>
       </c>
       <c r="V23" t="n">
-        <v>245.03448307723</v>
+        <v>245.0344830772301</v>
       </c>
       <c r="W23" t="n">
         <v>266.5231933245082</v>
@@ -2384,7 +2384,7 @@
         <v>287.0133252855642</v>
       </c>
       <c r="Y23" t="n">
-        <v>303.5201632631487</v>
+        <v>303.5201632631488</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>97.11420478903251</v>
       </c>
       <c r="C25" t="n">
-        <v>84.52904570572299</v>
+        <v>84.52904570572305</v>
       </c>
       <c r="D25" t="n">
-        <v>65.89769762530752</v>
+        <v>65.89769762530757</v>
       </c>
       <c r="E25" t="n">
-        <v>63.71618725366433</v>
+        <v>63.71618725366439</v>
       </c>
       <c r="F25" t="n">
-        <v>62.7032726300264</v>
+        <v>62.70327263002646</v>
       </c>
       <c r="G25" t="n">
-        <v>84.21824836927554</v>
+        <v>84.2182483692756</v>
       </c>
       <c r="H25" t="n">
-        <v>70.12988281307794</v>
+        <v>70.129882813078</v>
       </c>
       <c r="I25" t="n">
-        <v>41.00730760263657</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>14.8871431265207</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S25" t="n">
-        <v>122.9138237525616</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T25" t="n">
-        <v>140.7202764876418</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U25" t="n">
         <v>203.5437109310618</v>
       </c>
       <c r="V25" t="n">
-        <v>169.4198679309231</v>
+        <v>169.4198679309232</v>
       </c>
       <c r="W25" t="n">
-        <v>203.8052229436861</v>
+        <v>203.8052229436862</v>
       </c>
       <c r="X25" t="n">
-        <v>142.9918799961323</v>
+        <v>13.62384216019775</v>
       </c>
       <c r="Y25" t="n">
-        <v>135.8668779591899</v>
+        <v>135.86687795919</v>
       </c>
     </row>
     <row r="26">
@@ -2555,25 +2555,25 @@
         <v>300.0160662705757</v>
       </c>
       <c r="C26" t="n">
-        <v>282.5551163781026</v>
+        <v>282.5551163781027</v>
       </c>
       <c r="D26" t="n">
-        <v>271.965266227778</v>
+        <v>271.9652662277781</v>
       </c>
       <c r="E26" t="n">
         <v>299.2125946793569</v>
       </c>
       <c r="F26" t="n">
-        <v>324.1582703488065</v>
+        <v>324.1582703488066</v>
       </c>
       <c r="G26" t="n">
-        <v>330.2331195868996</v>
+        <v>330.2331195868997</v>
       </c>
       <c r="H26" t="n">
-        <v>232.6712193579088</v>
+        <v>232.6712193579089</v>
       </c>
       <c r="I26" t="n">
-        <v>37.08870483417202</v>
+        <v>37.08870483417208</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>72.70968241949673</v>
+        <v>72.70968241949679</v>
       </c>
       <c r="T26" t="n">
-        <v>130.0828834728172</v>
+        <v>130.0828834728173</v>
       </c>
       <c r="U26" t="n">
         <v>168.4397301121052</v>
@@ -2615,10 +2615,10 @@
         <v>245.03448307723</v>
       </c>
       <c r="W26" t="n">
-        <v>266.5231933245081</v>
+        <v>266.5231933245082</v>
       </c>
       <c r="X26" t="n">
-        <v>287.0133252855641</v>
+        <v>287.0133252855642</v>
       </c>
       <c r="Y26" t="n">
         <v>303.5201632631487</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.1142047890324</v>
+        <v>97.11420478903246</v>
       </c>
       <c r="C28" t="n">
-        <v>84.52904570572294</v>
+        <v>84.52904570572299</v>
       </c>
       <c r="D28" t="n">
-        <v>65.89769762530746</v>
+        <v>65.89769762530752</v>
       </c>
       <c r="E28" t="n">
-        <v>63.71618725366427</v>
+        <v>63.71618725366433</v>
       </c>
       <c r="F28" t="n">
-        <v>62.70327263002635</v>
+        <v>62.7032726300264</v>
       </c>
       <c r="G28" t="n">
-        <v>84.21824836927549</v>
+        <v>84.21824836927554</v>
       </c>
       <c r="H28" t="n">
-        <v>70.12988281307788</v>
+        <v>70.12988281307794</v>
       </c>
       <c r="I28" t="n">
-        <v>41.00730760263652</v>
+        <v>41.00730760263657</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.1409761734207</v>
+        <v>47.14097617342075</v>
       </c>
       <c r="S28" t="n">
         <v>122.9138237525616</v>
       </c>
       <c r="T28" t="n">
-        <v>140.7202764876417</v>
+        <v>140.7202764876418</v>
       </c>
       <c r="U28" t="n">
-        <v>203.5437109310617</v>
+        <v>203.5437109310618</v>
       </c>
       <c r="V28" t="n">
         <v>169.4198679309231</v>
@@ -2776,10 +2776,10 @@
         <v>203.8052229436861</v>
       </c>
       <c r="X28" t="n">
-        <v>13.62384216020068</v>
+        <v>142.9918799961323</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.8668779591899</v>
+        <v>6.498840123256654</v>
       </c>
     </row>
     <row r="29">
@@ -2953,7 +2953,7 @@
         <v>84.52904570572299</v>
       </c>
       <c r="D31" t="n">
-        <v>62.9491196730656</v>
+        <v>62.94911967306549</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3029,25 +3029,25 @@
         <v>300.0160662705757</v>
       </c>
       <c r="C32" t="n">
-        <v>282.5551163781027</v>
+        <v>282.5551163781026</v>
       </c>
       <c r="D32" t="n">
-        <v>271.9652662277781</v>
+        <v>271.965266227778</v>
       </c>
       <c r="E32" t="n">
         <v>299.2125946793569</v>
       </c>
       <c r="F32" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488065</v>
       </c>
       <c r="G32" t="n">
-        <v>330.2331195868997</v>
+        <v>330.2331195868996</v>
       </c>
       <c r="H32" t="n">
-        <v>232.6712193579089</v>
+        <v>232.6712193579088</v>
       </c>
       <c r="I32" t="n">
-        <v>37.08870483417208</v>
+        <v>37.08870483417202</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>72.70968241949679</v>
+        <v>72.70968241949673</v>
       </c>
       <c r="T32" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728172</v>
       </c>
       <c r="U32" t="n">
         <v>168.4397301121052</v>
@@ -3089,10 +3089,10 @@
         <v>245.03448307723</v>
       </c>
       <c r="W32" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245081</v>
       </c>
       <c r="X32" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855641</v>
       </c>
       <c r="Y32" t="n">
         <v>303.5201632631487</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.11420478903246</v>
+        <v>97.1142047890324</v>
       </c>
       <c r="C34" t="n">
-        <v>18.87719512345423</v>
+        <v>84.52904570572294</v>
       </c>
       <c r="D34" t="n">
-        <v>65.89769762530752</v>
+        <v>65.89769762530746</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>63.71618725366427</v>
       </c>
       <c r="F34" t="n">
-        <v>62.7032726300264</v>
+        <v>62.70327263002635</v>
       </c>
       <c r="G34" t="n">
-        <v>84.21824836927554</v>
+        <v>84.21824836927549</v>
       </c>
       <c r="H34" t="n">
-        <v>70.12988281307794</v>
+        <v>70.12988281307788</v>
       </c>
       <c r="I34" t="n">
-        <v>41.00730760263657</v>
+        <v>41.00730760263652</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>47.14097617342075</v>
+        <v>47.1409761734207</v>
       </c>
       <c r="S34" t="n">
         <v>122.9138237525616</v>
       </c>
       <c r="T34" t="n">
-        <v>140.7202764876418</v>
+        <v>140.7202764876417</v>
       </c>
       <c r="U34" t="n">
-        <v>203.5437109310618</v>
+        <v>74.17567309512992</v>
       </c>
       <c r="V34" t="n">
         <v>169.4198679309231</v>
@@ -3250,7 +3250,7 @@
         <v>203.8052229436861</v>
       </c>
       <c r="X34" t="n">
-        <v>142.9918799961323</v>
+        <v>142.9918799961322</v>
       </c>
       <c r="Y34" t="n">
         <v>135.8668779591899</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705757</v>
       </c>
       <c r="C35" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781027</v>
       </c>
       <c r="D35" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277781</v>
       </c>
       <c r="E35" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793569</v>
       </c>
       <c r="F35" t="n">
         <v>324.1582703488066</v>
       </c>
       <c r="G35" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868997</v>
       </c>
       <c r="H35" t="n">
         <v>232.6712193579089</v>
       </c>
       <c r="I35" t="n">
-        <v>37.08870483417211</v>
+        <v>37.08870483417208</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>72.70968241949683</v>
+        <v>72.70968241949679</v>
       </c>
       <c r="T35" t="n">
         <v>130.0828834728173</v>
       </c>
       <c r="U35" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121052</v>
       </c>
       <c r="V35" t="n">
-        <v>245.0344830772301</v>
+        <v>245.03448307723</v>
       </c>
       <c r="W35" t="n">
         <v>266.5231933245082</v>
@@ -3332,7 +3332,7 @@
         <v>287.0133252855642</v>
       </c>
       <c r="Y35" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631487</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.11420478903248</v>
+        <v>94.16562683679025</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>84.52904570572299</v>
       </c>
       <c r="D37" t="n">
-        <v>21.05870549509707</v>
+        <v>65.89769762530752</v>
       </c>
       <c r="E37" t="n">
-        <v>63.71618725366436</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>62.70327263002643</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>84.21824836927557</v>
+        <v>84.21824836927554</v>
       </c>
       <c r="H37" t="n">
-        <v>70.12988281307796</v>
+        <v>70.12988281307794</v>
       </c>
       <c r="I37" t="n">
-        <v>41.00730760263659</v>
+        <v>41.00730760263657</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.14097617342078</v>
+        <v>47.14097617342075</v>
       </c>
       <c r="S37" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525616</v>
       </c>
       <c r="T37" t="n">
         <v>140.7202764876418</v>
@@ -3481,16 +3481,16 @@
         <v>203.5437109310618</v>
       </c>
       <c r="V37" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309231</v>
       </c>
       <c r="W37" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436861</v>
       </c>
       <c r="X37" t="n">
-        <v>142.9918799961324</v>
+        <v>142.9918799961323</v>
       </c>
       <c r="Y37" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591899</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>232.6712193579089</v>
       </c>
       <c r="I38" t="n">
-        <v>37.08870483417213</v>
+        <v>37.08870483417211</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>72.70968241949686</v>
+        <v>72.70968241949683</v>
       </c>
       <c r="T38" t="n">
         <v>130.0828834728173</v>
       </c>
       <c r="U38" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121052</v>
       </c>
       <c r="V38" t="n">
         <v>245.0344830772301</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>97.11420478903248</v>
       </c>
       <c r="C40" t="n">
-        <v>84.52904570572305</v>
+        <v>21.05870549509679</v>
       </c>
       <c r="D40" t="n">
-        <v>65.89769762530757</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>63.71618725366439</v>
+        <v>63.71618725366436</v>
       </c>
       <c r="F40" t="n">
-        <v>30.4494395831248</v>
+        <v>62.70327263002643</v>
       </c>
       <c r="G40" t="n">
-        <v>84.2182483692756</v>
+        <v>84.21824836927557</v>
       </c>
       <c r="H40" t="n">
-        <v>70.12988281307798</v>
+        <v>70.12988281307796</v>
       </c>
       <c r="I40" t="n">
-        <v>41.00730760263662</v>
+        <v>41.00730760263659</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.14097617342081</v>
+        <v>47.14097617342078</v>
       </c>
       <c r="S40" t="n">
         <v>122.9138237525617</v>
       </c>
       <c r="T40" t="n">
-        <v>140.7202764876419</v>
+        <v>140.7202764876418</v>
       </c>
       <c r="U40" t="n">
         <v>203.5437109310618</v>
@@ -3898,13 +3898,13 @@
         <v>97.11420478903246</v>
       </c>
       <c r="C43" t="n">
-        <v>18.87719512345468</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>65.89769762530752</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>63.71618725366433</v>
       </c>
       <c r="F43" t="n">
         <v>62.7032726300264</v>
@@ -3913,7 +3913,7 @@
         <v>84.21824836927554</v>
       </c>
       <c r="H43" t="n">
-        <v>70.12988281307794</v>
+        <v>25.29089068286724</v>
       </c>
       <c r="I43" t="n">
         <v>41.00730760263657</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>72.70968241949679</v>
+        <v>72.7096824194968</v>
       </c>
       <c r="T44" t="n">
         <v>130.0828834728173</v>
@@ -4135,25 +4135,25 @@
         <v>97.11420478903246</v>
       </c>
       <c r="C46" t="n">
-        <v>59.88450272609039</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>65.89769762530752</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.71618725366433</v>
       </c>
       <c r="F46" t="n">
         <v>62.7032726300264</v>
       </c>
       <c r="G46" t="n">
-        <v>84.21824836927554</v>
+        <v>39.37925623906545</v>
       </c>
       <c r="H46" t="n">
         <v>70.12988281307794</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>41.00730760263657</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>502.8591282797204</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="C2" t="n">
-        <v>502.8591282797204</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D2" t="n">
-        <v>502.8591282797204</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>502.8591282797204</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
         <v>259.4103516356203</v>
@@ -4352,28 +4352,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y2" t="n">
-        <v>746.3079049238204</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>706.3289344460964</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>531.8759051649694</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>382.9414955037181</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4416,10 +4416,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
         <v>964.0571555106362</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X3" t="n">
-        <v>914.0892332110502</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y3" t="n">
-        <v>706.3289344460964</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="4">
@@ -4507,25 +4507,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
         <v>41.77557929797318</v>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.3558523848238</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C5" t="n">
-        <v>266.3558523848238</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D5" t="n">
-        <v>266.3558523848238</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E5" t="n">
-        <v>266.3558523848238</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F5" t="n">
-        <v>259.4103516356203</v>
+        <v>326.8389723397308</v>
       </c>
       <c r="G5" t="n">
         <v>243.9530410142718</v>
@@ -4592,25 +4592,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W5" t="n">
-        <v>591.4512093066566</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X5" t="n">
-        <v>591.4512093066566</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y5" t="n">
-        <v>348.0024326625565</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.334904905842</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C6" t="n">
-        <v>110.334904905842</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,13 +4647,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
         <v>473.4149733950735</v>
@@ -4683,13 +4683,13 @@
         <v>259.0600686093459</v>
       </c>
       <c r="W6" t="n">
-        <v>110.334904905842</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X6" t="n">
-        <v>110.334904905842</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.334904905842</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="7">
@@ -4762,13 +4762,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104.5536560184564</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4844,10 +4844,10 @@
         <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>348.0024326625565</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>104.5536560184564</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>787.9255531013317</v>
+        <v>579.5027691685495</v>
       </c>
       <c r="C9" t="n">
-        <v>613.4725238202047</v>
+        <v>405.0497398874226</v>
       </c>
       <c r="D9" t="n">
-        <v>464.5381141589534</v>
+        <v>256.1153302261713</v>
       </c>
       <c r="E9" t="n">
-        <v>305.3006591534979</v>
+        <v>256.1153302261713</v>
       </c>
       <c r="F9" t="n">
-        <v>158.7661011803829</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4890,10 +4890,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>747.7181061886176</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>747.7181061886176</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>747.7181061886176</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>747.7181061886176</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>747.7181061886176</v>
       </c>
       <c r="X9" t="n">
-        <v>956.1408901213997</v>
+        <v>747.7181061886176</v>
       </c>
       <c r="Y9" t="n">
-        <v>956.1408901213997</v>
+        <v>747.7181061886176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
         <v>19.28114311021272</v>
@@ -4993,19 +4993,19 @@
         <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1767.20593348277</v>
+        <v>1837.911062025314</v>
       </c>
       <c r="C11" t="n">
-        <v>1423.449750126728</v>
+        <v>1837.911062025314</v>
       </c>
       <c r="D11" t="n">
-        <v>1214.882438907343</v>
+        <v>1504.851697002933</v>
       </c>
       <c r="E11" t="n">
-        <v>854.3005198934686</v>
+        <v>1144.269777989059</v>
       </c>
       <c r="F11" t="n">
-        <v>854.3005198934686</v>
+        <v>758.4902067838218</v>
       </c>
       <c r="G11" t="n">
-        <v>462.384737336622</v>
+        <v>366.574424226975</v>
       </c>
       <c r="H11" t="n">
-        <v>169.0163287484529</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="I11" t="n">
         <v>73.20601563880585</v>
@@ -5042,10 +5042,10 @@
         <v>258.9898176069159</v>
       </c>
       <c r="K11" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223496</v>
       </c>
       <c r="L11" t="n">
-        <v>1205.679240092235</v>
+        <v>1205.679240092234</v>
       </c>
       <c r="M11" t="n">
         <v>1831.488208231171</v>
@@ -5060,13 +5060,13 @@
         <v>3418.758763931392</v>
       </c>
       <c r="Q11" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940292</v>
       </c>
       <c r="R11" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940292</v>
       </c>
       <c r="S11" t="n">
-        <v>3528.509683390924</v>
+        <v>3528.509683390923</v>
       </c>
       <c r="T11" t="n">
         <v>3338.765856504867</v>
@@ -5078,13 +5078,13 @@
         <v>2804.421186324976</v>
       </c>
       <c r="W11" t="n">
-        <v>2476.858864639231</v>
+        <v>2804.421186324976</v>
       </c>
       <c r="X11" t="n">
-        <v>2128.599439962522</v>
+        <v>2456.161761648266</v>
       </c>
       <c r="Y11" t="n">
-        <v>2128.599439962522</v>
+        <v>2199.304568505066</v>
       </c>
     </row>
     <row r="12">
@@ -5106,10 +5106,10 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2965326142067</v>
+        <v>358.2965326142068</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8367644618429</v>
+        <v>220.836764461843</v>
       </c>
       <c r="H12" t="n">
         <v>119.7433661394903</v>
@@ -5121,16 +5121,16 @@
         <v>73.20601563880585</v>
       </c>
       <c r="K12" t="n">
-        <v>341.4065580211426</v>
+        <v>399.7270172373158</v>
       </c>
       <c r="L12" t="n">
-        <v>841.8587361515173</v>
+        <v>900.1791953676905</v>
       </c>
       <c r="M12" t="n">
-        <v>1477.84204486569</v>
+        <v>1075.114490969363</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.816002121468</v>
+        <v>1743.637398825259</v>
       </c>
       <c r="O12" t="n">
         <v>2216.96817800723</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>280.1709198009858</v>
+        <v>302.1597537241306</v>
       </c>
       <c r="C13" t="n">
-        <v>280.1709198009858</v>
+        <v>302.1597537241306</v>
       </c>
       <c r="D13" t="n">
-        <v>280.1709198009858</v>
+        <v>302.1597537241306</v>
       </c>
       <c r="E13" t="n">
-        <v>280.1709198009858</v>
+        <v>302.1597537241306</v>
       </c>
       <c r="F13" t="n">
-        <v>158.4873058874455</v>
+        <v>302.1597537241306</v>
       </c>
       <c r="G13" t="n">
-        <v>158.4873058874455</v>
+        <v>302.1597537241306</v>
       </c>
       <c r="H13" t="n">
-        <v>158.4873058874455</v>
+        <v>172.9745133630635</v>
       </c>
       <c r="I13" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J13" t="n">
-        <v>79.32466191965295</v>
+        <v>79.324661919653</v>
       </c>
       <c r="K13" t="n">
-        <v>203.3235852420083</v>
+        <v>203.3235852420084</v>
       </c>
       <c r="L13" t="n">
         <v>410.617132189591</v>
       </c>
       <c r="M13" t="n">
-        <v>638.2252920475058</v>
+        <v>638.2252920475059</v>
       </c>
       <c r="N13" t="n">
-        <v>866.4434782183678</v>
+        <v>866.4434782183679</v>
       </c>
       <c r="O13" t="n">
         <v>1063.109528897734</v>
@@ -5227,22 +5227,22 @@
         <v>1238.295262094751</v>
       </c>
       <c r="T13" t="n">
-        <v>1037.806593779578</v>
+        <v>1147.612968055162</v>
       </c>
       <c r="U13" t="n">
-        <v>773.8599108750933</v>
+        <v>883.6662851506773</v>
       </c>
       <c r="V13" t="n">
-        <v>544.3817562535764</v>
+        <v>654.1881305291604</v>
       </c>
       <c r="W13" t="n">
-        <v>280.1709198009858</v>
+        <v>654.1881305291604</v>
       </c>
       <c r="X13" t="n">
-        <v>280.1709198009858</v>
+        <v>654.1881305291604</v>
       </c>
       <c r="Y13" t="n">
-        <v>280.1709198009858</v>
+        <v>458.6018849700003</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1848.607880358975</v>
+        <v>2277.477558491003</v>
       </c>
       <c r="C14" t="n">
-        <v>1504.851697002934</v>
+        <v>1933.721375134961</v>
       </c>
       <c r="D14" t="n">
-        <v>1504.851697002934</v>
+        <v>1600.66201011258</v>
       </c>
       <c r="E14" t="n">
-        <v>1144.269777989059</v>
+        <v>1240.080091098706</v>
       </c>
       <c r="F14" t="n">
-        <v>758.4902067838218</v>
+        <v>854.3005198934688</v>
       </c>
       <c r="G14" t="n">
-        <v>366.574424226975</v>
+        <v>462.384737336622</v>
       </c>
       <c r="H14" t="n">
-        <v>73.20601563880587</v>
+        <v>169.016328748453</v>
       </c>
       <c r="I14" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J14" t="n">
         <v>258.9898176069164</v>
       </c>
       <c r="K14" t="n">
-        <v>658.1763815223501</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L14" t="n">
         <v>1205.679240092235</v>
@@ -5294,34 +5294,34 @@
         <v>2994.282791219484</v>
       </c>
       <c r="P14" t="n">
-        <v>3418.758763931393</v>
+        <v>3418.758763931392</v>
       </c>
       <c r="Q14" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940292</v>
       </c>
       <c r="R14" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940292</v>
       </c>
       <c r="S14" t="n">
-        <v>3660.300781940293</v>
+        <v>3528.509683390923</v>
       </c>
       <c r="T14" t="n">
-        <v>3556.612685351824</v>
+        <v>3500.77805683639</v>
       </c>
       <c r="U14" t="n">
-        <v>3556.612685351824</v>
+        <v>3272.289940415699</v>
       </c>
       <c r="V14" t="n">
-        <v>3250.756131592623</v>
+        <v>2966.433386656498</v>
       </c>
       <c r="W14" t="n">
-        <v>2923.193809906878</v>
+        <v>2638.871064970755</v>
       </c>
       <c r="X14" t="n">
-        <v>2574.934385230169</v>
+        <v>2638.871064970755</v>
       </c>
       <c r="Y14" t="n">
-        <v>2210.001386838727</v>
+        <v>2638.871064970755</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I15" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J15" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="K15" t="n">
-        <v>137.906432594863</v>
+        <v>399.7270172373157</v>
       </c>
       <c r="L15" t="n">
-        <v>367.3097855513993</v>
+        <v>900.1791953676903</v>
       </c>
       <c r="M15" t="n">
-        <v>1003.293094265572</v>
+        <v>1536.162504081863</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.816002121468</v>
+        <v>1730.13646133764</v>
       </c>
       <c r="O15" t="n">
-        <v>2216.96817800723</v>
+        <v>2275.288637223402</v>
       </c>
       <c r="P15" t="n">
         <v>2637.497792942953</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>464.5529308083316</v>
+        <v>216.9358649823428</v>
       </c>
       <c r="C16" t="n">
-        <v>320.8230814647948</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="D16" t="n">
-        <v>195.912775636829</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="E16" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="F16" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="G16" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="H16" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="I16" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J16" t="n">
         <v>79.32466191965298</v>
@@ -5446,7 +5446,7 @@
         <v>638.2252920475059</v>
       </c>
       <c r="N16" t="n">
-        <v>866.4434782183679</v>
+        <v>866.443478218368</v>
       </c>
       <c r="O16" t="n">
         <v>1063.109528897734</v>
@@ -5458,28 +5458,28 @@
         <v>1238.295262094751</v>
       </c>
       <c r="R16" t="n">
-        <v>1238.295262094751</v>
+        <v>1132.331139551519</v>
       </c>
       <c r="S16" t="n">
-        <v>1238.295262094751</v>
+        <v>949.8287871303673</v>
       </c>
       <c r="T16" t="n">
-        <v>1238.295262094751</v>
+        <v>749.3401188151955</v>
       </c>
       <c r="U16" t="n">
-        <v>1238.295262094751</v>
+        <v>749.3401188151955</v>
       </c>
       <c r="V16" t="n">
-        <v>1008.817107473234</v>
+        <v>749.3401188151955</v>
       </c>
       <c r="W16" t="n">
-        <v>744.606271020643</v>
+        <v>749.3401188151955</v>
       </c>
       <c r="X16" t="n">
-        <v>541.8230537069957</v>
+        <v>546.5569015015482</v>
       </c>
       <c r="Y16" t="n">
-        <v>464.5529308083316</v>
+        <v>373.3779962282125</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C17" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D17" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E17" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F17" t="n">
-        <v>679.2595952135343</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G17" t="n">
-        <v>345.6907875499992</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H17" t="n">
-        <v>110.6693538551414</v>
+        <v>110.6693538551417</v>
       </c>
       <c r="I17" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J17" t="n">
         <v>258.9898176069164</v>
@@ -5522,7 +5522,7 @@
         <v>1205.679240092235</v>
       </c>
       <c r="M17" t="n">
-        <v>1831.488208231171</v>
+        <v>1831.488208231172</v>
       </c>
       <c r="N17" t="n">
         <v>2452.791422191916</v>
@@ -5531,34 +5531,34 @@
         <v>2994.282791219484</v>
       </c>
       <c r="P17" t="n">
-        <v>3418.758763931393</v>
+        <v>3418.758763931392</v>
       </c>
       <c r="Q17" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940292</v>
       </c>
       <c r="R17" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940292</v>
       </c>
       <c r="S17" t="n">
-        <v>3586.856658284237</v>
+        <v>3586.856658284235</v>
       </c>
       <c r="T17" t="n">
-        <v>3455.459806291492</v>
+        <v>3455.45980629149</v>
       </c>
       <c r="U17" t="n">
-        <v>3285.318664764113</v>
+        <v>3285.318664764111</v>
       </c>
       <c r="V17" t="n">
-        <v>3037.809085898224</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W17" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X17" t="n">
-        <v>2478.681289322393</v>
+        <v>2478.681289322391</v>
       </c>
       <c r="Y17" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I18" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J18" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="K18" t="n">
-        <v>399.7270172373158</v>
+        <v>137.9064325948629</v>
       </c>
       <c r="L18" t="n">
-        <v>900.1791953676905</v>
+        <v>638.3586107252374</v>
       </c>
       <c r="M18" t="n">
-        <v>1536.162504081863</v>
+        <v>1274.34191943941</v>
       </c>
       <c r="N18" t="n">
-        <v>2204.685411937759</v>
+        <v>1942.864827295306</v>
       </c>
       <c r="O18" t="n">
-        <v>2359.913891739558</v>
+        <v>2488.017003181068</v>
       </c>
       <c r="P18" t="n">
         <v>2637.497792942953</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>419.5025855012076</v>
+        <v>464.7944967438445</v>
       </c>
       <c r="C19" t="n">
-        <v>400.4347116391335</v>
+        <v>464.7944967438445</v>
       </c>
       <c r="D19" t="n">
-        <v>333.8713807044794</v>
+        <v>398.2311658091904</v>
       </c>
       <c r="E19" t="n">
-        <v>333.8713807044794</v>
+        <v>333.871380704479</v>
       </c>
       <c r="F19" t="n">
-        <v>270.5347416842506</v>
+        <v>270.5347416842503</v>
       </c>
       <c r="G19" t="n">
-        <v>185.4658039375075</v>
+        <v>185.4658039375074</v>
       </c>
       <c r="H19" t="n">
-        <v>114.627538469752</v>
+        <v>114.6275384697519</v>
       </c>
       <c r="I19" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J19" t="n">
-        <v>136.5105320125876</v>
+        <v>136.5105320125877</v>
       </c>
       <c r="K19" t="n">
-        <v>317.6953254278778</v>
+        <v>317.6953254278779</v>
       </c>
       <c r="L19" t="n">
-        <v>582.174742468395</v>
+        <v>582.1747424683952</v>
       </c>
       <c r="M19" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192449</v>
       </c>
       <c r="N19" t="n">
-        <v>1152.372828683041</v>
+        <v>1152.372828683042</v>
       </c>
       <c r="O19" t="n">
         <v>1406.224749455342</v>
@@ -5692,7 +5692,7 @@
         <v>1611.737284042549</v>
       </c>
       <c r="Q19" t="n">
-        <v>1695.782222838228</v>
+        <v>1695.782222838229</v>
       </c>
       <c r="R19" t="n">
         <v>1648.165075188308</v>
@@ -5710,13 +5710,13 @@
         <v>1005.137116499229</v>
       </c>
       <c r="W19" t="n">
-        <v>799.27325493995</v>
+        <v>799.2732549399502</v>
       </c>
       <c r="X19" t="n">
-        <v>654.8370125196142</v>
+        <v>700.1289237622509</v>
       </c>
       <c r="Y19" t="n">
-        <v>517.5977418537657</v>
+        <v>562.8896530964025</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5741,16 @@
         <v>679.259595213533</v>
       </c>
       <c r="G20" t="n">
-        <v>345.6907875499978</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H20" t="n">
         <v>110.6693538551413</v>
       </c>
       <c r="I20" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J20" t="n">
-        <v>258.9898176069162</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K20" t="n">
         <v>658.1763815223499</v>
@@ -5765,10 +5765,10 @@
         <v>2452.791422191916</v>
       </c>
       <c r="O20" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219483</v>
       </c>
       <c r="P20" t="n">
-        <v>3418.758763931393</v>
+        <v>3418.758763931392</v>
       </c>
       <c r="Q20" t="n">
         <v>3660.300781940292</v>
@@ -5777,10 +5777,10 @@
         <v>3660.300781940292</v>
       </c>
       <c r="S20" t="n">
-        <v>3586.856658284234</v>
+        <v>3586.856658284235</v>
       </c>
       <c r="T20" t="n">
-        <v>3455.459806291489</v>
+        <v>3455.45980629149</v>
       </c>
       <c r="U20" t="n">
         <v>3285.318664764111</v>
@@ -5817,34 +5817,34 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2965326142067</v>
+        <v>358.2965326142068</v>
       </c>
       <c r="G21" t="n">
-        <v>220.8367644618429</v>
+        <v>220.836764461843</v>
       </c>
       <c r="H21" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I21" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J21" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="K21" t="n">
-        <v>399.7270172373157</v>
+        <v>233.9895492714496</v>
       </c>
       <c r="L21" t="n">
-        <v>900.1791953676905</v>
+        <v>367.3097855513996</v>
       </c>
       <c r="M21" t="n">
-        <v>1536.162504081863</v>
+        <v>1003.293094265572</v>
       </c>
       <c r="N21" t="n">
-        <v>1730.136461337641</v>
+        <v>1671.816002121468</v>
       </c>
       <c r="O21" t="n">
-        <v>2275.288637223402</v>
+        <v>2216.96817800723</v>
       </c>
       <c r="P21" t="n">
         <v>2637.497792942953</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>550.1773711940699</v>
+        <v>550.1773711940698</v>
       </c>
       <c r="C22" t="n">
-        <v>464.7944967438447</v>
+        <v>464.7944967438445</v>
       </c>
       <c r="D22" t="n">
-        <v>398.2311658091906</v>
+        <v>398.2311658091904</v>
       </c>
       <c r="E22" t="n">
-        <v>333.8713807044791</v>
+        <v>333.871380704479</v>
       </c>
       <c r="F22" t="n">
-        <v>270.5347416842504</v>
+        <v>270.5347416842503</v>
       </c>
       <c r="G22" t="n">
         <v>185.4658039375074</v>
@@ -5905,19 +5905,19 @@
         <v>114.6275384697519</v>
       </c>
       <c r="I22" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J22" t="n">
-        <v>136.5105320125876</v>
+        <v>136.5105320125877</v>
       </c>
       <c r="K22" t="n">
-        <v>317.6953254278776</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L22" t="n">
-        <v>582.1747424683949</v>
+        <v>582.174742468395</v>
       </c>
       <c r="M22" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192446</v>
       </c>
       <c r="N22" t="n">
         <v>1152.372828683041</v>
@@ -5929,31 +5929,31 @@
         <v>1611.737284042549</v>
       </c>
       <c r="Q22" t="n">
-        <v>1695.782222838229</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R22" t="n">
-        <v>1648.165075188309</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S22" t="n">
-        <v>1524.009697660469</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T22" t="n">
         <v>1381.868004238608</v>
       </c>
       <c r="U22" t="n">
-        <v>1176.268296227435</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V22" t="n">
-        <v>1005.13711649923</v>
+        <v>1135.811902192091</v>
       </c>
       <c r="W22" t="n">
-        <v>929.9480406328122</v>
+        <v>929.9480406328119</v>
       </c>
       <c r="X22" t="n">
-        <v>785.5117982124765</v>
+        <v>785.5117982124762</v>
       </c>
       <c r="Y22" t="n">
-        <v>648.272527546628</v>
+        <v>648.2725275466279</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C23" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D23" t="n">
         <v>1308.927135646023</v>
@@ -5975,13 +5975,13 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F23" t="n">
-        <v>679.2595952135341</v>
+        <v>679.2595952135343</v>
       </c>
       <c r="G23" t="n">
-        <v>345.6907875499987</v>
+        <v>345.6907875499992</v>
       </c>
       <c r="H23" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551417</v>
       </c>
       <c r="I23" t="n">
         <v>73.20601563880585</v>
@@ -5990,19 +5990,19 @@
         <v>258.9898176069164</v>
       </c>
       <c r="K23" t="n">
-        <v>658.1763815223503</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L23" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M23" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N23" t="n">
         <v>2452.791422191916</v>
       </c>
       <c r="O23" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219483</v>
       </c>
       <c r="P23" t="n">
         <v>3418.758763931392</v>
@@ -6014,25 +6014,25 @@
         <v>3660.300781940292</v>
       </c>
       <c r="S23" t="n">
-        <v>3586.856658284234</v>
+        <v>3586.856658284235</v>
       </c>
       <c r="T23" t="n">
-        <v>3455.459806291489</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U23" t="n">
-        <v>3285.318664764111</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V23" t="n">
-        <v>3037.809085898222</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W23" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X23" t="n">
-        <v>2478.681289322391</v>
+        <v>2478.681289322392</v>
       </c>
       <c r="Y23" t="n">
-        <v>2172.095265824261</v>
+        <v>2172.095265824262</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J24" t="n">
-        <v>190.1641956615502</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="K24" t="n">
-        <v>516.68519726006</v>
+        <v>137.9064325948629</v>
       </c>
       <c r="L24" t="n">
-        <v>1017.137375390435</v>
+        <v>638.3586107252374</v>
       </c>
       <c r="M24" t="n">
-        <v>1269.865530007199</v>
+        <v>1274.34191943941</v>
       </c>
       <c r="N24" t="n">
-        <v>1463.839487262977</v>
+        <v>1942.864827295306</v>
       </c>
       <c r="O24" t="n">
-        <v>2008.991663148739</v>
+        <v>2488.017003181068</v>
       </c>
       <c r="P24" t="n">
-        <v>2429.521278084463</v>
+        <v>2637.497792942953</v>
       </c>
       <c r="Q24" t="n">
         <v>2657.936419551312</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>550.1773711940693</v>
+        <v>550.17737119407</v>
       </c>
       <c r="C25" t="n">
-        <v>464.7944967438443</v>
+        <v>464.7944967438448</v>
       </c>
       <c r="D25" t="n">
-        <v>398.2311658091903</v>
+        <v>398.2311658091907</v>
       </c>
       <c r="E25" t="n">
-        <v>333.8713807044788</v>
+        <v>333.8713807044792</v>
       </c>
       <c r="F25" t="n">
-        <v>270.5347416842502</v>
+        <v>270.5347416842504</v>
       </c>
       <c r="G25" t="n">
-        <v>185.4658039375072</v>
+        <v>185.4658039375074</v>
       </c>
       <c r="H25" t="n">
-        <v>114.6275384697517</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I25" t="n">
         <v>73.20601563880585</v>
@@ -6148,49 +6148,49 @@
         <v>136.5105320125876</v>
       </c>
       <c r="K25" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L25" t="n">
         <v>582.174742468395</v>
       </c>
       <c r="M25" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192445</v>
       </c>
       <c r="N25" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O25" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455341</v>
       </c>
       <c r="P25" t="n">
         <v>1611.737284042549</v>
       </c>
       <c r="Q25" t="n">
-        <v>1695.782222838229</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R25" t="n">
-        <v>1680.744704528612</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S25" t="n">
-        <v>1556.589327000772</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T25" t="n">
-        <v>1414.447633578911</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U25" t="n">
-        <v>1208.847925567738</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V25" t="n">
-        <v>1037.716745839532</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W25" t="n">
-        <v>831.8528842802535</v>
+        <v>799.2732549399493</v>
       </c>
       <c r="X25" t="n">
-        <v>687.4166418599178</v>
+        <v>785.5117982124768</v>
       </c>
       <c r="Y25" t="n">
-        <v>550.1773711940693</v>
+        <v>648.2725275466281</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>679.2595952135343</v>
       </c>
       <c r="G26" t="n">
-        <v>345.6907875499986</v>
+        <v>345.6907875499992</v>
       </c>
       <c r="H26" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551417</v>
       </c>
       <c r="I26" t="n">
         <v>73.20601563880585</v>
@@ -6312,10 +6312,10 @@
         <v>1017.137375390435</v>
       </c>
       <c r="M27" t="n">
-        <v>1653.120684104607</v>
+        <v>1192.072670992107</v>
       </c>
       <c r="N27" t="n">
-        <v>1853.763183346939</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O27" t="n">
         <v>2008.991663148739</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>550.1773711940693</v>
+        <v>550.1773711940698</v>
       </c>
       <c r="C28" t="n">
-        <v>464.7944967438442</v>
+        <v>464.7944967438445</v>
       </c>
       <c r="D28" t="n">
-        <v>398.2311658091902</v>
+        <v>398.2311658091904</v>
       </c>
       <c r="E28" t="n">
-        <v>333.8713807044788</v>
+        <v>333.871380704479</v>
       </c>
       <c r="F28" t="n">
-        <v>270.5347416842502</v>
+        <v>270.5347416842503</v>
       </c>
       <c r="G28" t="n">
         <v>185.4658039375073</v>
       </c>
       <c r="H28" t="n">
-        <v>114.6275384697518</v>
+        <v>114.6275384697519</v>
       </c>
       <c r="I28" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5105320125878</v>
+        <v>136.5105320125877</v>
       </c>
       <c r="K28" t="n">
         <v>317.6953254278778</v>
@@ -6391,7 +6391,7 @@
         <v>582.1747424683952</v>
       </c>
       <c r="M28" t="n">
-        <v>866.9687724192448</v>
+        <v>866.9687724192449</v>
       </c>
       <c r="N28" t="n">
         <v>1152.372828683042</v>
@@ -6412,7 +6412,7 @@
         <v>1524.009697660469</v>
       </c>
       <c r="T28" t="n">
-        <v>1381.868004238609</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U28" t="n">
         <v>1176.268296227435</v>
@@ -6421,13 +6421,13 @@
         <v>1005.13711649923</v>
       </c>
       <c r="W28" t="n">
-        <v>799.273254939951</v>
+        <v>799.2732549399507</v>
       </c>
       <c r="X28" t="n">
-        <v>785.5117982124756</v>
+        <v>654.837012519615</v>
       </c>
       <c r="Y28" t="n">
-        <v>648.2725275466273</v>
+        <v>648.2725275466279</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.04873423782</v>
       </c>
       <c r="C29" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.63952577509</v>
       </c>
       <c r="D29" t="n">
-        <v>1308.927135646022</v>
+        <v>1308.927135646021</v>
       </c>
       <c r="E29" t="n">
         <v>1006.692191525459</v>
       </c>
       <c r="F29" t="n">
-        <v>679.2595952135334</v>
+        <v>679.259595213533</v>
       </c>
       <c r="G29" t="n">
-        <v>345.6907875499983</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H29" t="n">
         <v>110.6693538551413</v>
       </c>
       <c r="I29" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J29" t="n">
         <v>258.9898176069162</v>
@@ -6528,16 +6528,16 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2965326142067</v>
+        <v>358.2965326142068</v>
       </c>
       <c r="G30" t="n">
-        <v>220.8367644618429</v>
+        <v>220.836764461843</v>
       </c>
       <c r="H30" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I30" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J30" t="n">
         <v>190.1641956615502</v>
@@ -6549,10 +6549,10 @@
         <v>1017.137375390435</v>
       </c>
       <c r="M30" t="n">
-        <v>1653.120684104607</v>
+        <v>1192.072670992107</v>
       </c>
       <c r="N30" t="n">
-        <v>1853.763183346939</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O30" t="n">
         <v>2008.991663148739</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>419.5025855012085</v>
+        <v>419.5025855012084</v>
       </c>
       <c r="C31" t="n">
-        <v>334.1197110509833</v>
+        <v>334.1197110509831</v>
       </c>
       <c r="D31" t="n">
         <v>270.5347416842503</v>
@@ -6616,19 +6616,19 @@
         <v>114.6275384697519</v>
       </c>
       <c r="I31" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5105320125879</v>
+        <v>136.5105320125877</v>
       </c>
       <c r="K31" t="n">
-        <v>317.6953254278781</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L31" t="n">
-        <v>582.1747424683954</v>
+        <v>582.174742468395</v>
       </c>
       <c r="M31" t="n">
-        <v>866.9687724192452</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N31" t="n">
         <v>1152.372828683042</v>
@@ -6664,7 +6664,7 @@
         <v>654.837012519615</v>
       </c>
       <c r="Y31" t="n">
-        <v>517.5977418537666</v>
+        <v>517.5977418537665</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6680,16 @@
         <v>1583.639525775091</v>
       </c>
       <c r="D32" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E32" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F32" t="n">
-        <v>679.2595952135343</v>
+        <v>679.2595952135341</v>
       </c>
       <c r="G32" t="n">
-        <v>345.6907875499992</v>
+        <v>345.6907875499986</v>
       </c>
       <c r="H32" t="n">
         <v>110.6693538551413</v>
@@ -6698,22 +6698,22 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J32" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K32" t="n">
-        <v>658.1763815223503</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L32" t="n">
-        <v>1205.679240092235</v>
+        <v>1205.679240092234</v>
       </c>
       <c r="M32" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N32" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191915</v>
       </c>
       <c r="O32" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219483</v>
       </c>
       <c r="P32" t="n">
         <v>3418.758763931392</v>
@@ -6728,7 +6728,7 @@
         <v>3586.856658284235</v>
       </c>
       <c r="T32" t="n">
-        <v>3455.45980629149</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U32" t="n">
         <v>3285.318664764111</v>
@@ -6786,10 +6786,10 @@
         <v>1017.137375390435</v>
       </c>
       <c r="M33" t="n">
-        <v>1653.120684104607</v>
+        <v>1192.072670992107</v>
       </c>
       <c r="N33" t="n">
-        <v>1853.763183346939</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O33" t="n">
         <v>2008.991663148739</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>419.5025855012081</v>
+        <v>550.1773711940693</v>
       </c>
       <c r="C34" t="n">
-        <v>400.4347116391331</v>
+        <v>464.7944967438442</v>
       </c>
       <c r="D34" t="n">
-        <v>333.8713807044791</v>
+        <v>398.2311658091902</v>
       </c>
       <c r="E34" t="n">
-        <v>333.8713807044791</v>
+        <v>333.8713807044788</v>
       </c>
       <c r="F34" t="n">
-        <v>270.5347416842504</v>
+        <v>270.5347416842502</v>
       </c>
       <c r="G34" t="n">
-        <v>185.4658039375074</v>
+        <v>185.4658039375073</v>
       </c>
       <c r="H34" t="n">
-        <v>114.6275384697519</v>
+        <v>114.6275384697518</v>
       </c>
       <c r="I34" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J34" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125878</v>
       </c>
       <c r="K34" t="n">
         <v>317.6953254278779</v>
       </c>
       <c r="L34" t="n">
-        <v>582.1747424683952</v>
+        <v>582.1747424683953</v>
       </c>
       <c r="M34" t="n">
-        <v>866.9687724192448</v>
+        <v>866.9687724192451</v>
       </c>
       <c r="N34" t="n">
         <v>1152.372828683042</v>
@@ -6874,34 +6874,34 @@
         <v>1406.224749455342</v>
       </c>
       <c r="P34" t="n">
-        <v>1611.737284042549</v>
+        <v>1611.73728404255</v>
       </c>
       <c r="Q34" t="n">
-        <v>1695.782222838228</v>
+        <v>1695.782222838229</v>
       </c>
       <c r="R34" t="n">
-        <v>1648.165075188308</v>
+        <v>1648.165075188309</v>
       </c>
       <c r="S34" t="n">
         <v>1524.009697660469</v>
       </c>
       <c r="T34" t="n">
-        <v>1381.868004238608</v>
+        <v>1381.868004238609</v>
       </c>
       <c r="U34" t="n">
-        <v>1176.268296227435</v>
+        <v>1306.943081920296</v>
       </c>
       <c r="V34" t="n">
-        <v>1005.137116499229</v>
+        <v>1135.811902192091</v>
       </c>
       <c r="W34" t="n">
-        <v>799.2732549399504</v>
+        <v>929.9480406328117</v>
       </c>
       <c r="X34" t="n">
-        <v>654.8370125196147</v>
+        <v>785.5117982124762</v>
       </c>
       <c r="Y34" t="n">
-        <v>517.5977418537661</v>
+        <v>648.2725275466273</v>
       </c>
     </row>
     <row r="35">
@@ -6920,28 +6920,28 @@
         <v>1308.927135646023</v>
       </c>
       <c r="E35" t="n">
-        <v>1006.69219152546</v>
+        <v>1006.692191525461</v>
       </c>
       <c r="F35" t="n">
-        <v>679.259595213534</v>
+        <v>679.2595952135343</v>
       </c>
       <c r="G35" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499992</v>
       </c>
       <c r="H35" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551417</v>
       </c>
       <c r="I35" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J35" t="n">
-        <v>258.9898176069162</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K35" t="n">
-        <v>658.1763815223497</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L35" t="n">
-        <v>1205.679240092234</v>
+        <v>1205.679240092235</v>
       </c>
       <c r="M35" t="n">
         <v>1831.488208231171</v>
@@ -6959,28 +6959,28 @@
         <v>3660.300781940292</v>
       </c>
       <c r="R35" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940292</v>
       </c>
       <c r="S35" t="n">
-        <v>3586.856658284236</v>
+        <v>3586.856658284235</v>
       </c>
       <c r="T35" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.45980629149</v>
       </c>
       <c r="U35" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764111</v>
       </c>
       <c r="V35" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W35" t="n">
         <v>2768.59373910579</v>
       </c>
       <c r="X35" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322391</v>
       </c>
       <c r="Y35" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="36">
@@ -7002,16 +7002,16 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2965326142067</v>
+        <v>358.2965326142068</v>
       </c>
       <c r="G36" t="n">
-        <v>220.8367644618429</v>
+        <v>220.836764461843</v>
       </c>
       <c r="H36" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I36" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J36" t="n">
         <v>190.1641956615502</v>
@@ -7020,16 +7020,16 @@
         <v>516.68519726006</v>
       </c>
       <c r="L36" t="n">
-        <v>1017.137375390435</v>
+        <v>650.00543354001</v>
       </c>
       <c r="M36" t="n">
-        <v>1653.120684104607</v>
+        <v>1285.988742254182</v>
       </c>
       <c r="N36" t="n">
-        <v>1853.763183346939</v>
+        <v>1954.511650110078</v>
       </c>
       <c r="O36" t="n">
-        <v>2008.991663148739</v>
+        <v>2109.740129911877</v>
       </c>
       <c r="P36" t="n">
         <v>2429.521278084463</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>419.5025855012078</v>
+        <v>422.4809470691298</v>
       </c>
       <c r="C37" t="n">
-        <v>419.5025855012078</v>
+        <v>337.0980726189046</v>
       </c>
       <c r="D37" t="n">
-        <v>398.2311658091905</v>
+        <v>270.5347416842504</v>
       </c>
       <c r="E37" t="n">
-        <v>333.8713807044791</v>
+        <v>270.5347416842504</v>
       </c>
       <c r="F37" t="n">
         <v>270.5347416842504</v>
       </c>
       <c r="G37" t="n">
-        <v>185.4658039375074</v>
+        <v>185.4658039375075</v>
       </c>
       <c r="H37" t="n">
         <v>114.6275384697519</v>
       </c>
       <c r="I37" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J37" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K37" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L37" t="n">
-        <v>582.1747424683949</v>
+        <v>582.174742468395</v>
       </c>
       <c r="M37" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192449</v>
       </c>
       <c r="N37" t="n">
-        <v>1152.372828683041</v>
+        <v>1152.372828683042</v>
       </c>
       <c r="O37" t="n">
         <v>1406.224749455342</v>
       </c>
       <c r="P37" t="n">
-        <v>1611.737284042549</v>
+        <v>1611.73728404255</v>
       </c>
       <c r="Q37" t="n">
-        <v>1695.782222838228</v>
+        <v>1695.782222838229</v>
       </c>
       <c r="R37" t="n">
-        <v>1648.165075188308</v>
+        <v>1648.165075188309</v>
       </c>
       <c r="S37" t="n">
-        <v>1524.009697660468</v>
+        <v>1524.009697660469</v>
       </c>
       <c r="T37" t="n">
-        <v>1381.868004238608</v>
+        <v>1381.868004238609</v>
       </c>
       <c r="U37" t="n">
-        <v>1176.268296227434</v>
+        <v>1176.268296227435</v>
       </c>
       <c r="V37" t="n">
-        <v>1005.137116499229</v>
+        <v>1005.13711649923</v>
       </c>
       <c r="W37" t="n">
-        <v>799.2732549399502</v>
+        <v>799.2732549399504</v>
       </c>
       <c r="X37" t="n">
-        <v>654.8370125196145</v>
+        <v>654.8370125196147</v>
       </c>
       <c r="Y37" t="n">
-        <v>517.5977418537659</v>
+        <v>517.5977418537664</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1869.04873423782</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C38" t="n">
-        <v>1583.63952577509</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D38" t="n">
-        <v>1308.927135646021</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E38" t="n">
         <v>1006.692191525459</v>
       </c>
       <c r="F38" t="n">
-        <v>679.259595213533</v>
+        <v>679.2595952135334</v>
       </c>
       <c r="G38" t="n">
-        <v>345.6907875499978</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H38" t="n">
         <v>110.6693538551413</v>
@@ -7184,7 +7184,7 @@
         <v>1831.488208231171</v>
       </c>
       <c r="N38" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191915</v>
       </c>
       <c r="O38" t="n">
         <v>2994.282791219483</v>
@@ -7208,7 +7208,7 @@
         <v>3285.318664764111</v>
       </c>
       <c r="V38" t="n">
-        <v>3037.809085898221</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W38" t="n">
         <v>2768.593739105789</v>
@@ -7217,7 +7217,7 @@
         <v>2478.681289322391</v>
       </c>
       <c r="Y38" t="n">
-        <v>2172.09526582426</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="39">
@@ -7257,16 +7257,16 @@
         <v>516.68519726006</v>
       </c>
       <c r="L39" t="n">
-        <v>1017.137375390435</v>
+        <v>650.00543354001</v>
       </c>
       <c r="M39" t="n">
-        <v>1653.120684104607</v>
+        <v>1285.988742254182</v>
       </c>
       <c r="N39" t="n">
-        <v>1853.763183346939</v>
+        <v>1954.511650110078</v>
       </c>
       <c r="O39" t="n">
-        <v>2008.991663148739</v>
+        <v>2109.740129911877</v>
       </c>
       <c r="P39" t="n">
         <v>2429.521278084463</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>517.5977418537651</v>
+        <v>419.5025855012076</v>
       </c>
       <c r="C40" t="n">
-        <v>432.2148674035402</v>
+        <v>398.2311658091906</v>
       </c>
       <c r="D40" t="n">
-        <v>365.6515364688861</v>
+        <v>398.2311658091906</v>
       </c>
       <c r="E40" t="n">
-        <v>301.2917513641746</v>
+        <v>333.8713807044791</v>
       </c>
       <c r="F40" t="n">
         <v>270.5347416842504</v>
@@ -7330,19 +7330,19 @@
         <v>73.20601563880584</v>
       </c>
       <c r="J40" t="n">
-        <v>136.5105320125879</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K40" t="n">
-        <v>317.6953254278778</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L40" t="n">
-        <v>582.174742468395</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M40" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192446</v>
       </c>
       <c r="N40" t="n">
-        <v>1152.372828683041</v>
+        <v>1152.372828683042</v>
       </c>
       <c r="O40" t="n">
         <v>1406.224749455342</v>
@@ -7351,7 +7351,7 @@
         <v>1611.737284042549</v>
       </c>
       <c r="Q40" t="n">
-        <v>1695.782222838228</v>
+        <v>1695.782222838229</v>
       </c>
       <c r="R40" t="n">
         <v>1648.165075188308</v>
@@ -7360,22 +7360,22 @@
         <v>1524.009697660468</v>
       </c>
       <c r="T40" t="n">
-        <v>1381.868004238607</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U40" t="n">
         <v>1176.268296227434</v>
       </c>
       <c r="V40" t="n">
-        <v>1005.137116499228</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W40" t="n">
-        <v>799.2732549399493</v>
+        <v>799.2732549399502</v>
       </c>
       <c r="X40" t="n">
-        <v>654.8370125196136</v>
+        <v>654.8370125196145</v>
       </c>
       <c r="Y40" t="n">
-        <v>517.5977418537651</v>
+        <v>517.5977418537657</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F41" t="n">
-        <v>679.2595952135339</v>
+        <v>679.2595952135343</v>
       </c>
       <c r="G41" t="n">
-        <v>345.6907875499987</v>
+        <v>345.6907875499992</v>
       </c>
       <c r="H41" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551417</v>
       </c>
       <c r="I41" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J41" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K41" t="n">
         <v>658.1763815223499</v>
       </c>
       <c r="L41" t="n">
-        <v>1205.679240092235</v>
+        <v>1205.679240092234</v>
       </c>
       <c r="M41" t="n">
         <v>1831.488208231171</v>
       </c>
       <c r="N41" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191915</v>
       </c>
       <c r="O41" t="n">
         <v>2994.282791219483</v>
@@ -7436,10 +7436,10 @@
         <v>3660.300781940292</v>
       </c>
       <c r="S41" t="n">
-        <v>3586.856658284234</v>
+        <v>3586.856658284235</v>
       </c>
       <c r="T41" t="n">
-        <v>3455.459806291489</v>
+        <v>3455.45980629149</v>
       </c>
       <c r="U41" t="n">
         <v>3285.318664764111</v>
@@ -7494,16 +7494,16 @@
         <v>516.68519726006</v>
       </c>
       <c r="L42" t="n">
-        <v>1017.137375390435</v>
+        <v>650.00543354001</v>
       </c>
       <c r="M42" t="n">
-        <v>1653.120684104607</v>
+        <v>1285.988742254182</v>
       </c>
       <c r="N42" t="n">
-        <v>1853.763183346939</v>
+        <v>1954.511650110078</v>
       </c>
       <c r="O42" t="n">
-        <v>2008.991663148739</v>
+        <v>2109.740129911877</v>
       </c>
       <c r="P42" t="n">
         <v>2429.521278084463</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>419.5025855012086</v>
+        <v>419.5025855012075</v>
       </c>
       <c r="C43" t="n">
-        <v>400.4347116391331</v>
+        <v>419.5025855012075</v>
       </c>
       <c r="D43" t="n">
-        <v>333.871380704479</v>
+        <v>352.9392545665535</v>
       </c>
       <c r="E43" t="n">
-        <v>333.871380704479</v>
+        <v>288.579469461842</v>
       </c>
       <c r="F43" t="n">
-        <v>270.5347416842503</v>
+        <v>225.2428304416133</v>
       </c>
       <c r="G43" t="n">
-        <v>185.4658039375074</v>
+        <v>140.1738926948703</v>
       </c>
       <c r="H43" t="n">
         <v>114.6275384697519</v>
@@ -7567,10 +7567,10 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J43" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125878</v>
       </c>
       <c r="K43" t="n">
-        <v>317.6953254278778</v>
+        <v>317.6953254278779</v>
       </c>
       <c r="L43" t="n">
         <v>582.1747424683952</v>
@@ -7579,7 +7579,7 @@
         <v>866.9687724192448</v>
       </c>
       <c r="N43" t="n">
-        <v>1152.372828683042</v>
+        <v>1152.372828683041</v>
       </c>
       <c r="O43" t="n">
         <v>1406.224749455342</v>
@@ -7594,25 +7594,25 @@
         <v>1648.165075188308</v>
       </c>
       <c r="S43" t="n">
-        <v>1524.009697660469</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T43" t="n">
         <v>1381.868004238608</v>
       </c>
       <c r="U43" t="n">
-        <v>1176.268296227435</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V43" t="n">
-        <v>1005.13711649923</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W43" t="n">
-        <v>799.2732549399509</v>
+        <v>799.2732549399502</v>
       </c>
       <c r="X43" t="n">
-        <v>654.8370125196152</v>
+        <v>654.8370125196145</v>
       </c>
       <c r="Y43" t="n">
-        <v>517.5977418537666</v>
+        <v>517.5977418537656</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.04873423782</v>
       </c>
       <c r="C44" t="n">
         <v>1583.639525775091</v>
       </c>
       <c r="D44" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E44" t="n">
         <v>1006.69219152546</v>
@@ -7643,22 +7643,22 @@
         <v>110.6693538551413</v>
       </c>
       <c r="I44" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880584</v>
       </c>
       <c r="J44" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069162</v>
       </c>
       <c r="K44" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223497</v>
       </c>
       <c r="L44" t="n">
-        <v>1205.679240092235</v>
+        <v>1205.679240092234</v>
       </c>
       <c r="M44" t="n">
         <v>1831.488208231171</v>
       </c>
       <c r="N44" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191915</v>
       </c>
       <c r="O44" t="n">
         <v>2994.282791219483</v>
@@ -7667,31 +7667,31 @@
         <v>3418.758763931392</v>
       </c>
       <c r="Q44" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940291</v>
       </c>
       <c r="R44" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940291</v>
       </c>
       <c r="S44" t="n">
-        <v>3586.856658284235</v>
+        <v>3586.856658284234</v>
       </c>
       <c r="T44" t="n">
-        <v>3455.45980629149</v>
+        <v>3455.459806291489</v>
       </c>
       <c r="U44" t="n">
         <v>3285.318664764111</v>
       </c>
       <c r="V44" t="n">
-        <v>3037.809085898222</v>
+        <v>3037.809085898221</v>
       </c>
       <c r="W44" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105789</v>
       </c>
       <c r="X44" t="n">
         <v>2478.681289322391</v>
       </c>
       <c r="Y44" t="n">
-        <v>2172.095265824261</v>
+        <v>2172.09526582426</v>
       </c>
     </row>
     <row r="45">
@@ -7713,16 +7713,16 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2965326142068</v>
+        <v>358.2965326142067</v>
       </c>
       <c r="G45" t="n">
-        <v>220.836764461843</v>
+        <v>220.8367644618429</v>
       </c>
       <c r="H45" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I45" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880584</v>
       </c>
       <c r="J45" t="n">
         <v>190.1641956615502</v>
@@ -7731,16 +7731,16 @@
         <v>516.68519726006</v>
       </c>
       <c r="L45" t="n">
-        <v>1017.137375390435</v>
+        <v>650.00543354001</v>
       </c>
       <c r="M45" t="n">
-        <v>1653.120684104607</v>
+        <v>1285.988742254182</v>
       </c>
       <c r="N45" t="n">
-        <v>1853.763183346939</v>
+        <v>1954.511650110078</v>
       </c>
       <c r="O45" t="n">
-        <v>2008.991663148739</v>
+        <v>2109.740129911877</v>
       </c>
       <c r="P45" t="n">
         <v>2429.521278084463</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>419.5025855012077</v>
+        <v>419.5025855012081</v>
       </c>
       <c r="C46" t="n">
-        <v>359.0131888081871</v>
+        <v>419.5025855012081</v>
       </c>
       <c r="D46" t="n">
-        <v>292.449857873533</v>
+        <v>352.939254566554</v>
       </c>
       <c r="E46" t="n">
-        <v>292.449857873533</v>
+        <v>288.5794694618426</v>
       </c>
       <c r="F46" t="n">
-        <v>229.1132188533043</v>
+        <v>225.2428304416139</v>
       </c>
       <c r="G46" t="n">
-        <v>144.0442811065614</v>
+        <v>185.4658039375074</v>
       </c>
       <c r="H46" t="n">
-        <v>73.20601563880585</v>
+        <v>114.6275384697519</v>
       </c>
       <c r="I46" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880584</v>
       </c>
       <c r="J46" t="n">
-        <v>136.5105320125875</v>
+        <v>136.5105320125877</v>
       </c>
       <c r="K46" t="n">
-        <v>317.6953254278776</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L46" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683952</v>
       </c>
       <c r="M46" t="n">
-        <v>866.9687724192446</v>
+        <v>866.9687724192448</v>
       </c>
       <c r="N46" t="n">
-        <v>1152.372828683041</v>
+        <v>1152.372828683042</v>
       </c>
       <c r="O46" t="n">
         <v>1406.224749455342</v>
@@ -7825,31 +7825,31 @@
         <v>1611.737284042549</v>
       </c>
       <c r="Q46" t="n">
-        <v>1695.782222838228</v>
+        <v>1695.782222838229</v>
       </c>
       <c r="R46" t="n">
-        <v>1648.165075188308</v>
+        <v>1648.165075188309</v>
       </c>
       <c r="S46" t="n">
-        <v>1524.009697660468</v>
+        <v>1524.009697660469</v>
       </c>
       <c r="T46" t="n">
         <v>1381.868004238608</v>
       </c>
       <c r="U46" t="n">
-        <v>1176.268296227434</v>
+        <v>1176.268296227435</v>
       </c>
       <c r="V46" t="n">
         <v>1005.137116499229</v>
       </c>
       <c r="W46" t="n">
-        <v>799.2732549399502</v>
+        <v>799.2732549399504</v>
       </c>
       <c r="X46" t="n">
-        <v>654.8370125196145</v>
+        <v>654.8370125196147</v>
       </c>
       <c r="Y46" t="n">
-        <v>517.5977418537658</v>
+        <v>517.5977418537661</v>
       </c>
     </row>
   </sheetData>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,22 +8766,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>7.951459559858932</v>
+        <v>7.951459559858961</v>
       </c>
       <c r="K12" t="n">
-        <v>205.5556822487672</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>321.3154539193649</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>7.951459559858932</v>
+        <v>7.951459559858975</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>97.05365320867287</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>259.5532138761263</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>7.951459559858932</v>
+        <v>7.951459559858975</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9255,10 +9255,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>174.0731588093019</v>
+        <v>44.6760765451514</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599031</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,25 +9477,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>7.951459559858932</v>
+        <v>7.951459559858975</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>97.05365320867341</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>259.5532138761262</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858975</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>78.57864546979019</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>44.6760765451514</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,13 +9960,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>6.735900996519689</v>
+        <v>78.57864546979008</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10197,13 +10197,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>6.735900996519689</v>
+        <v>78.57864546979008</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10434,13 +10434,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>6.735900996519689</v>
+        <v>78.57864546979008</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10668,19 +10668,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>6.735900996519689</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>216.6966405963631</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659905</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10905,19 +10905,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>6.735900996519689</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>216.6966405963631</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11142,19 +11142,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>6.735900996519689</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>216.6966405963631</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11379,19 +11379,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>6.735900996519689</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>216.6966405963631</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>340.3186215224812</v>
       </c>
       <c r="D11" t="n">
-        <v>123.2471332649652</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>381.9217754931852</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>94.85220997855056</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>324.2866984688867</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>361.2836684075273</v>
+        <v>106.9950471957591</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>154.877709933411</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>142.2925508501015</v>
       </c>
       <c r="D13" t="n">
-        <v>123.6612027696861</v>
+        <v>123.661202769686</v>
       </c>
       <c r="E13" t="n">
-        <v>121.4796923980429</v>
+        <v>121.4796923980428</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>120.4667777744049</v>
       </c>
       <c r="G13" t="n">
         <v>141.9817535136541</v>
       </c>
       <c r="H13" t="n">
-        <v>127.8933879574565</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.34233540086184</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>104.9044813177993</v>
+        <v>104.9044813177992</v>
       </c>
       <c r="S13" t="n">
-        <v>180.6773288969402</v>
+        <v>180.6773288969401</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>108.7083105328277</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>261.5687280880647</v>
       </c>
       <c r="X13" t="n">
-        <v>200.7553851405109</v>
+        <v>200.7553851405108</v>
       </c>
       <c r="Y13" t="n">
-        <v>193.6303831035685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>329.7287713721567</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>94.85220997855059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.4731875638753</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>85.19517299461091</v>
+        <v>160.3920783282074</v>
       </c>
       <c r="U14" t="n">
-        <v>226.2032352564838</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>344.7768304299427</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>361.2836684075273</v>
       </c>
     </row>
     <row r="15">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>154.877709933411</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>123.661202769686</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>121.4796923980428</v>
       </c>
       <c r="F16" t="n">
-        <v>120.466777774405</v>
+        <v>120.4667777744049</v>
       </c>
       <c r="G16" t="n">
         <v>141.9817535136541</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>104.9044813177993</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>180.6773288969402</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>198.4837816320203</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>261.3072160754404</v>
+        <v>261.3072160754403</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>227.1833730753017</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>261.5687280880647</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>117.132961433891</v>
+        <v>22.18326688296613</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>65.65185058226974</v>
+        <v>84.52904570572299</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>63.71618725366442</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>44.83899213020999</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>129.368037835933</v>
       </c>
       <c r="W22" t="n">
-        <v>129.368037835933</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.11420478903246</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>32.25383304690006</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>129.3680378359346</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>129.3680378359316</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>129.3680378359333</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2.948577952241912</v>
+        <v>2.948577952242019</v>
       </c>
       <c r="E31" t="n">
         <v>63.71618725366433</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>65.65185058226876</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>63.71618725366433</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>129.3680378359318</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>2.948577952242196</v>
       </c>
       <c r="C37" t="n">
-        <v>84.52904570572302</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>44.83899213021047</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>63.71618725366433</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>62.7032726300264</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25546,19 +25546,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.11420478903251</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>63.47034021062623</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>65.89769762530754</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>32.25383304690166</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>65.65185058226831</v>
+        <v>84.52904570572299</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>63.71618725366433</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>44.8389921302105</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>24.64454297963261</v>
+        <v>84.52904570572299</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>63.71618725366433</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>44.83899213021009</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>41.00730760263657</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>821537.8742763676</v>
+        <v>821537.8742763677</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>936311.1632445987</v>
+        <v>936311.1632445988</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>936311.1632445988</v>
+        <v>936311.1632445987</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>936311.1632445988</v>
+        <v>936311.1632445987</v>
       </c>
     </row>
     <row r="15">
@@ -26314,43 +26314,43 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="E2" t="n">
-        <v>447447.6472819539</v>
+        <v>447447.6472819538</v>
       </c>
       <c r="F2" t="n">
-        <v>447447.647281954</v>
+        <v>447447.6472819538</v>
       </c>
       <c r="G2" t="n">
-        <v>511210.5855976382</v>
+        <v>511210.5855976384</v>
       </c>
       <c r="H2" t="n">
-        <v>511210.5855976387</v>
+        <v>511210.5855976384</v>
       </c>
       <c r="I2" t="n">
+        <v>511210.5855976385</v>
+      </c>
+      <c r="J2" t="n">
+        <v>511210.5855976386</v>
+      </c>
+      <c r="K2" t="n">
+        <v>511210.5855976386</v>
+      </c>
+      <c r="L2" t="n">
+        <v>511210.5855976386</v>
+      </c>
+      <c r="M2" t="n">
         <v>511210.5855976384</v>
-      </c>
-      <c r="J2" t="n">
-        <v>511210.5855976385</v>
-      </c>
-      <c r="K2" t="n">
-        <v>511210.5855976384</v>
-      </c>
-      <c r="L2" t="n">
-        <v>511210.5855976383</v>
-      </c>
-      <c r="M2" t="n">
-        <v>511210.5855976386</v>
       </c>
       <c r="N2" t="n">
         <v>511210.5855976385</v>
       </c>
       <c r="O2" t="n">
-        <v>511210.5855976383</v>
+        <v>511210.5855976384</v>
       </c>
       <c r="P2" t="n">
         <v>511210.5855976383</v>
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691230.6639893664</v>
+        <v>691230.6639893663</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46210.80411550278</v>
+        <v>46210.80411550281</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46210.80411550278</v>
+        <v>46210.80411550285</v>
       </c>
       <c r="M3" t="n">
         <v>167978.674170194</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19963.41619882111</v>
+        <v>19963.41619882113</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295860.2172754403</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="C4" t="n">
         <v>295860.2172754402</v>
@@ -26424,19 +26424,19 @@
         <v>295860.2172754402</v>
       </c>
       <c r="E4" t="n">
-        <v>42080.4032067923</v>
+        <v>42080.40320679233</v>
       </c>
       <c r="F4" t="n">
-        <v>42080.40320679229</v>
+        <v>42080.40320679234</v>
       </c>
       <c r="G4" t="n">
+        <v>100453.0663195834</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100453.0663195834</v>
+      </c>
+      <c r="I4" t="n">
         <v>100453.0663195833</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100453.0663195833</v>
-      </c>
-      <c r="I4" t="n">
-        <v>100453.0663195834</v>
       </c>
       <c r="J4" t="n">
         <v>100453.0663195834</v>
@@ -26451,7 +26451,7 @@
         <v>100453.0663195834</v>
       </c>
       <c r="N4" t="n">
-        <v>100453.0663195833</v>
+        <v>100453.0663195834</v>
       </c>
       <c r="O4" t="n">
         <v>100453.0663195834</v>
@@ -26479,28 +26479,28 @@
         <v>70487.90653947926</v>
       </c>
       <c r="F5" t="n">
-        <v>70487.90653947927</v>
+        <v>70487.90653947926</v>
       </c>
       <c r="G5" t="n">
-        <v>75344.02665346203</v>
+        <v>75344.02665346202</v>
       </c>
       <c r="H5" t="n">
+        <v>75344.02665346202</v>
+      </c>
+      <c r="I5" t="n">
         <v>75344.026653462</v>
-      </c>
-      <c r="I5" t="n">
-        <v>75344.02665346202</v>
       </c>
       <c r="J5" t="n">
         <v>75344.02665346202</v>
       </c>
       <c r="K5" t="n">
-        <v>75344.026653462</v>
+        <v>75344.02665346202</v>
       </c>
       <c r="L5" t="n">
         <v>75344.02665346202</v>
       </c>
       <c r="M5" t="n">
-        <v>75344.026653462</v>
+        <v>75344.02665346202</v>
       </c>
       <c r="N5" t="n">
         <v>75344.026653462</v>
@@ -26509,7 +26509,7 @@
         <v>75344.02665346202</v>
       </c>
       <c r="P5" t="n">
-        <v>75344.02665346202</v>
+        <v>75344.026653462</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88240.18859442725</v>
+        <v>88240.18859442737</v>
       </c>
       <c r="C6" t="n">
-        <v>169009.6201259752</v>
+        <v>169009.6201259753</v>
       </c>
       <c r="D6" t="n">
-        <v>169009.620125975</v>
+        <v>169009.6201259749</v>
       </c>
       <c r="E6" t="n">
-        <v>-356351.326453684</v>
+        <v>-356614.1402892169</v>
       </c>
       <c r="F6" t="n">
-        <v>334879.3375356824</v>
+        <v>334616.5237001494</v>
       </c>
       <c r="G6" t="n">
-        <v>289202.68850909</v>
+        <v>289194.92642682</v>
       </c>
       <c r="H6" t="n">
-        <v>335413.4926245933</v>
+        <v>335405.7305423229</v>
       </c>
       <c r="I6" t="n">
-        <v>335413.4926245932</v>
+        <v>335405.730542323</v>
       </c>
       <c r="J6" t="n">
-        <v>252390.1338266658</v>
+        <v>252382.3717443957</v>
       </c>
       <c r="K6" t="n">
-        <v>335413.4926245931</v>
+        <v>335405.730542323</v>
       </c>
       <c r="L6" t="n">
-        <v>289202.68850909</v>
+        <v>289194.92642682</v>
       </c>
       <c r="M6" t="n">
-        <v>167434.8184543991</v>
+        <v>167427.0563721289</v>
       </c>
       <c r="N6" t="n">
-        <v>335413.4926245932</v>
+        <v>335405.730542323</v>
       </c>
       <c r="O6" t="n">
-        <v>315450.0764257718</v>
+        <v>315442.3143435016</v>
       </c>
       <c r="P6" t="n">
-        <v>335413.4926245929</v>
+        <v>335405.7305423227</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="F2" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="G2" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="H2" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="I2" t="n">
+        <v>82.71777539290478</v>
+      </c>
+      <c r="J2" t="n">
         <v>82.71777539290484</v>
-      </c>
-      <c r="J2" t="n">
-        <v>82.7177753929049</v>
       </c>
       <c r="K2" t="n">
         <v>82.71777539290484</v>
       </c>
       <c r="L2" t="n">
+        <v>82.7177753929049</v>
+      </c>
+      <c r="M2" t="n">
         <v>82.71777539290484</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>82.71777539290481</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82.71777539290478</v>
       </c>
       <c r="O2" t="n">
         <v>82.71777539290484</v>
@@ -26744,16 +26744,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>585.0208306634613</v>
+        <v>585.0208306634612</v>
       </c>
       <c r="F3" t="n">
-        <v>585.0208306634613</v>
+        <v>585.0208306634611</v>
       </c>
       <c r="G3" t="n">
-        <v>585.0208306634613</v>
+        <v>585.0208306634611</v>
       </c>
       <c r="H3" t="n">
-        <v>585.0208306634613</v>
+        <v>585.0208306634611</v>
       </c>
       <c r="I3" t="n">
         <v>585.0208306634611</v>
@@ -26796,16 +26796,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>915.0751954850732</v>
+        <v>915.0751954850731</v>
       </c>
       <c r="F4" t="n">
-        <v>915.0751954850733</v>
+        <v>915.0751954850731</v>
       </c>
       <c r="G4" t="n">
-        <v>915.0751954850733</v>
+        <v>915.0751954850731</v>
       </c>
       <c r="H4" t="n">
-        <v>915.075195485073</v>
+        <v>915.0751954850731</v>
       </c>
       <c r="I4" t="n">
         <v>915.0751954850731</v>
@@ -26814,13 +26814,13 @@
         <v>915.0751954850731</v>
       </c>
       <c r="K4" t="n">
-        <v>915.075195485073</v>
+        <v>915.0751954850731</v>
       </c>
       <c r="L4" t="n">
         <v>915.0751954850731</v>
       </c>
       <c r="M4" t="n">
-        <v>915.075195485073</v>
+        <v>915.0751954850731</v>
       </c>
       <c r="N4" t="n">
         <v>915.075195485073</v>
@@ -26829,7 +26829,7 @@
         <v>915.0751954850731</v>
       </c>
       <c r="P4" t="n">
-        <v>915.0751954850731</v>
+        <v>915.0751954850729</v>
       </c>
     </row>
   </sheetData>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.76350514437848</v>
+        <v>57.76350514437851</v>
       </c>
       <c r="H2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852633</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437848</v>
+        <v>57.76350514437857</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852639</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>585.0208306634613</v>
+        <v>585.0208306634612</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>674.0609066074142</v>
+        <v>674.060906607414</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>674.0609066074142</v>
+        <v>674.060906607414</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437848</v>
+        <v>57.76350514437851</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852633</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>674.0609066074142</v>
+        <v>674.060906607414</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>301.9037271885252</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.6568797896507</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>162.6992258814087</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>156.3047421268873</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>301.9037271885252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>333.2456655029306</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27701,7 +27701,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>33.24597977401346</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>104.4570710944507</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71.63594515755861</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>178.3269633122123</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>314.9811766033053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>312.2938397833332</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27938,22 +27938,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>57.66534642768261</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27995,7 +27995,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>197.9358824681333</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630763</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28065,7 +28065,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="C11" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="D11" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="E11" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="F11" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="G11" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="H11" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="I11" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2.135189281195295</v>
+        <v>2.135189281195323</v>
       </c>
       <c r="S11" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="T11" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="U11" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="V11" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="W11" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="X11" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="Y11" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="C13" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="D13" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="E13" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="F13" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="G13" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="H13" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="I13" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="J13" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="K13" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="L13" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="M13" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="N13" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="O13" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="P13" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="R13" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="S13" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="T13" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="U13" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="V13" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="W13" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="X13" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="C14" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="D14" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="E14" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="F14" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="G14" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="H14" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="I14" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>2.135189281195295</v>
+        <v>2.135189281195352</v>
       </c>
       <c r="S14" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="T14" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="U14" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="V14" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="W14" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="X14" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="C16" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="D16" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="E16" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="F16" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="G16" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="H16" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="I16" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="J16" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="K16" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="L16" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="M16" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="N16" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="O16" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="P16" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="R16" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="S16" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="T16" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="U16" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="V16" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="W16" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="X16" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="C17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="D17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="E17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="F17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="G17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="H17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="I17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>2.135189281195295</v>
+        <v>2.135189281195352</v>
       </c>
       <c r="S17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="T17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="U17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="V17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="W17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="X17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="C19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="D19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="E19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="F19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="G19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="H19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="I19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="J19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="K19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="L19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="M19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="N19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="O19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="P19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="R19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="S19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="T19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="U19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="V19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="W19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="X19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="C20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="D20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="E20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="F20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="G20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="H20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="I20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>2.135189281195295</v>
+        <v>2.135189281195352</v>
       </c>
       <c r="S20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="T20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="U20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="V20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="W20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="X20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="C22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="D22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="E22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="F22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="G22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="H22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="I22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="J22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="K22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="L22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="M22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="N22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="O22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="P22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="R22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="S22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="T22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="U22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="V22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="W22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="X22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="Y22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>2.135189281195352</v>
       </c>
       <c r="S23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="K25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="L25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="M25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="N25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="O25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="P25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="R25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="S25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="C26" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="D26" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="E26" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="F26" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="G26" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="H26" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="I26" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>2.135189281195352</v>
       </c>
       <c r="S26" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="T26" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="U26" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="V26" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="W26" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="X26" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="Y26" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="C28" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="D28" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="E28" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="F28" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="G28" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="H28" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="I28" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="J28" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="K28" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="L28" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="M28" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="N28" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="O28" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="P28" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="R28" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="S28" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="T28" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="U28" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="V28" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="W28" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="X28" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290484</v>
       </c>
     </row>
     <row r="29">
@@ -29557,7 +29557,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>2.135189281195352</v>
+        <v>2.135189281196253</v>
       </c>
       <c r="S29" t="n">
         <v>82.71777539290484</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="C32" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="D32" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="E32" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="F32" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="G32" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="H32" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="I32" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>2.135189281195352</v>
       </c>
       <c r="S32" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="T32" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="U32" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="V32" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="W32" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="X32" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="Y32" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="C34" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="D34" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="E34" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="F34" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="G34" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="H34" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="I34" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="J34" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="K34" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="L34" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="M34" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="N34" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="O34" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="P34" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="R34" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="S34" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="T34" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="U34" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="V34" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="W34" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="X34" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.71777539290484</v>
+        <v>82.7177753929049</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="C35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="D35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="E35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="F35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="G35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="H35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="I35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>2.135189281196702</v>
+        <v>2.135189281195352</v>
       </c>
       <c r="S35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="T35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="U35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="V35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="W35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="X35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="Y35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="C37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="D37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="E37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="F37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="G37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="H37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="I37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="J37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="K37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="L37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="M37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="N37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="O37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="P37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="R37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="S37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="T37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="U37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="V37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="W37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="X37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="Y37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290484</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="C38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="D38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="E38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="F38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="G38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="H38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="I38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>2.135189281195352</v>
       </c>
       <c r="S38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="T38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="U38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="V38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="W38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="X38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="Y38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="C40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="D40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="E40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="F40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="G40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="H40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="I40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="J40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="K40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="L40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="M40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="N40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="O40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="P40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="R40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="S40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="T40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="U40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="V40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="W40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="X40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="Y40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
     </row>
     <row r="41">
@@ -31750,28 +31750,28 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.351842535330496</v>
+        <v>2.351842535330495</v>
       </c>
       <c r="H11" t="n">
-        <v>24.08580736495345</v>
+        <v>24.08580736495344</v>
       </c>
       <c r="I11" t="n">
-        <v>90.66940934332904</v>
+        <v>90.66940934332902</v>
       </c>
       <c r="J11" t="n">
-        <v>199.6096953830069</v>
+        <v>199.6096953830068</v>
       </c>
       <c r="K11" t="n">
         <v>299.1631899035468</v>
       </c>
       <c r="L11" t="n">
-        <v>371.1383908941676</v>
+        <v>371.1383908941675</v>
       </c>
       <c r="M11" t="n">
-        <v>412.9629705818513</v>
+        <v>412.9629705818512</v>
       </c>
       <c r="N11" t="n">
-        <v>419.6451431853591</v>
+        <v>419.645143185359</v>
       </c>
       <c r="O11" t="n">
         <v>396.2590089746664</v>
@@ -31780,13 +31780,13 @@
         <v>338.1978963836947</v>
       </c>
       <c r="Q11" t="n">
-        <v>253.9725355871713</v>
+        <v>253.9725355871712</v>
       </c>
       <c r="R11" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S11" t="n">
-        <v>53.59261177384373</v>
+        <v>53.59261177384372</v>
       </c>
       <c r="T11" t="n">
         <v>10.29519069840925</v>
@@ -31835,10 +31835,10 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I12" t="n">
-        <v>43.32465585573747</v>
+        <v>43.32465585573746</v>
       </c>
       <c r="J12" t="n">
-        <v>118.8861671068078</v>
+        <v>118.8861671068077</v>
       </c>
       <c r="K12" t="n">
         <v>203.1953954956288</v>
@@ -31847,7 +31847,7 @@
         <v>273.2212851131571</v>
       </c>
       <c r="M12" t="n">
-        <v>318.8363527115864</v>
+        <v>318.8363527115863</v>
       </c>
       <c r="N12" t="n">
         <v>327.2750022406848</v>
@@ -31862,16 +31862,16 @@
         <v>160.6268514682017</v>
       </c>
       <c r="R12" t="n">
-        <v>78.12787621577323</v>
+        <v>78.12787621577321</v>
       </c>
       <c r="S12" t="n">
         <v>23.37323790433733</v>
       </c>
       <c r="T12" t="n">
-        <v>5.072020220563403</v>
+        <v>5.072020220563402</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08278596660332004</v>
+        <v>0.08278596660332002</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H13" t="n">
-        <v>9.379514301456812</v>
+        <v>9.37951430145681</v>
       </c>
       <c r="I13" t="n">
         <v>31.72539193171689</v>
       </c>
       <c r="J13" t="n">
-        <v>74.58536065688095</v>
+        <v>74.58536065688094</v>
       </c>
       <c r="K13" t="n">
-        <v>122.5666592767055</v>
+        <v>122.5666592767054</v>
       </c>
       <c r="L13" t="n">
         <v>156.8431256503319</v>
       </c>
       <c r="M13" t="n">
-        <v>165.3690849693453</v>
+        <v>165.3690849693452</v>
       </c>
       <c r="N13" t="n">
-        <v>161.4369777468533</v>
+        <v>161.4369777468532</v>
       </c>
       <c r="O13" t="n">
         <v>149.1131782812377</v>
       </c>
       <c r="P13" t="n">
-        <v>127.5920841171588</v>
+        <v>127.5920841171587</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.33814543018265</v>
+        <v>88.33814543018264</v>
       </c>
       <c r="R13" t="n">
-        <v>47.43463981084391</v>
+        <v>47.4346398108439</v>
       </c>
       <c r="S13" t="n">
-        <v>18.38499889150582</v>
+        <v>18.38499889150581</v>
       </c>
       <c r="T13" t="n">
-        <v>4.507537547734864</v>
+        <v>4.507537547734863</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05754303252427494</v>
+        <v>0.05754303252427493</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.351842535330496</v>
+        <v>2.351842535330495</v>
       </c>
       <c r="H14" t="n">
-        <v>24.08580736495345</v>
+        <v>24.08580736495344</v>
       </c>
       <c r="I14" t="n">
-        <v>90.66940934332904</v>
+        <v>90.66940934332899</v>
       </c>
       <c r="J14" t="n">
-        <v>199.6096953830069</v>
+        <v>199.6096953830068</v>
       </c>
       <c r="K14" t="n">
-        <v>299.1631899035468</v>
+        <v>299.1631899035467</v>
       </c>
       <c r="L14" t="n">
-        <v>371.1383908941676</v>
+        <v>371.1383908941674</v>
       </c>
       <c r="M14" t="n">
-        <v>412.9629705818513</v>
+        <v>412.9629705818511</v>
       </c>
       <c r="N14" t="n">
-        <v>419.6451431853591</v>
+        <v>419.6451431853589</v>
       </c>
       <c r="O14" t="n">
-        <v>396.2590089746664</v>
+        <v>396.2590089746662</v>
       </c>
       <c r="P14" t="n">
-        <v>338.1978963836947</v>
+        <v>338.1978963836946</v>
       </c>
       <c r="Q14" t="n">
-        <v>253.9725355871713</v>
+        <v>253.9725355871712</v>
       </c>
       <c r="R14" t="n">
-        <v>147.7339286599544</v>
+        <v>147.7339286599543</v>
       </c>
       <c r="S14" t="n">
-        <v>53.59261177384373</v>
+        <v>53.59261177384371</v>
       </c>
       <c r="T14" t="n">
         <v>10.29519069840925</v>
@@ -32069,46 +32069,46 @@
         <v>1.258346692370464</v>
       </c>
       <c r="H15" t="n">
-        <v>12.15297989736738</v>
+        <v>12.15297989736737</v>
       </c>
       <c r="I15" t="n">
-        <v>43.32465585573747</v>
+        <v>43.32465585573745</v>
       </c>
       <c r="J15" t="n">
-        <v>118.8861671068078</v>
+        <v>118.8861671068077</v>
       </c>
       <c r="K15" t="n">
         <v>203.1953954956288</v>
       </c>
       <c r="L15" t="n">
-        <v>273.2212851131571</v>
+        <v>273.221285113157</v>
       </c>
       <c r="M15" t="n">
-        <v>318.8363527115864</v>
+        <v>318.8363527115862</v>
       </c>
       <c r="N15" t="n">
-        <v>327.2750022406848</v>
+        <v>327.2750022406847</v>
       </c>
       <c r="O15" t="n">
-        <v>299.3926886886866</v>
+        <v>299.3926886886865</v>
       </c>
       <c r="P15" t="n">
-        <v>240.2890275983564</v>
+        <v>240.2890275983563</v>
       </c>
       <c r="Q15" t="n">
-        <v>160.6268514682017</v>
+        <v>160.6268514682016</v>
       </c>
       <c r="R15" t="n">
-        <v>78.12787621577323</v>
+        <v>78.1278762157732</v>
       </c>
       <c r="S15" t="n">
-        <v>23.37323790433733</v>
+        <v>23.37323790433732</v>
       </c>
       <c r="T15" t="n">
-        <v>5.072020220563403</v>
+        <v>5.072020220563402</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08278596660332004</v>
+        <v>0.08278596660331999</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.054955596278373</v>
+        <v>1.054955596278372</v>
       </c>
       <c r="H16" t="n">
-        <v>9.379514301456812</v>
+        <v>9.379514301456808</v>
       </c>
       <c r="I16" t="n">
-        <v>31.72539193171689</v>
+        <v>31.72539193171688</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58536065688095</v>
+        <v>74.58536065688092</v>
       </c>
       <c r="K16" t="n">
-        <v>122.5666592767055</v>
+        <v>122.5666592767054</v>
       </c>
       <c r="L16" t="n">
-        <v>156.8431256503319</v>
+        <v>156.8431256503318</v>
       </c>
       <c r="M16" t="n">
-        <v>165.3690849693453</v>
+        <v>165.3690849693452</v>
       </c>
       <c r="N16" t="n">
-        <v>161.4369777468533</v>
+        <v>161.4369777468532</v>
       </c>
       <c r="O16" t="n">
-        <v>149.1131782812377</v>
+        <v>149.1131782812376</v>
       </c>
       <c r="P16" t="n">
-        <v>127.5920841171588</v>
+        <v>127.5920841171587</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.33814543018265</v>
+        <v>88.33814543018262</v>
       </c>
       <c r="R16" t="n">
-        <v>47.43463981084391</v>
+        <v>47.43463981084389</v>
       </c>
       <c r="S16" t="n">
-        <v>18.38499889150582</v>
+        <v>18.38499889150581</v>
       </c>
       <c r="T16" t="n">
-        <v>4.507537547734864</v>
+        <v>4.507537547734862</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05754303252427494</v>
+        <v>0.05754303252427492</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.351842535330496</v>
+        <v>2.351842535330495</v>
       </c>
       <c r="H17" t="n">
-        <v>24.08580736495345</v>
+        <v>24.08580736495344</v>
       </c>
       <c r="I17" t="n">
-        <v>90.66940934332904</v>
+        <v>90.66940934332899</v>
       </c>
       <c r="J17" t="n">
-        <v>199.6096953830069</v>
+        <v>199.6096953830068</v>
       </c>
       <c r="K17" t="n">
-        <v>299.1631899035468</v>
+        <v>299.1631899035467</v>
       </c>
       <c r="L17" t="n">
-        <v>371.1383908941676</v>
+        <v>371.1383908941674</v>
       </c>
       <c r="M17" t="n">
-        <v>412.9629705818513</v>
+        <v>412.9629705818511</v>
       </c>
       <c r="N17" t="n">
-        <v>419.6451431853591</v>
+        <v>419.6451431853589</v>
       </c>
       <c r="O17" t="n">
-        <v>396.2590089746664</v>
+        <v>396.2590089746662</v>
       </c>
       <c r="P17" t="n">
-        <v>338.1978963836947</v>
+        <v>338.1978963836946</v>
       </c>
       <c r="Q17" t="n">
-        <v>253.9725355871713</v>
+        <v>253.9725355871712</v>
       </c>
       <c r="R17" t="n">
-        <v>147.7339286599544</v>
+        <v>147.7339286599543</v>
       </c>
       <c r="S17" t="n">
-        <v>53.59261177384373</v>
+        <v>53.59261177384371</v>
       </c>
       <c r="T17" t="n">
         <v>10.29519069840925</v>
@@ -32306,46 +32306,46 @@
         <v>1.258346692370464</v>
       </c>
       <c r="H18" t="n">
-        <v>12.15297989736738</v>
+        <v>12.15297989736737</v>
       </c>
       <c r="I18" t="n">
-        <v>43.32465585573747</v>
+        <v>43.32465585573745</v>
       </c>
       <c r="J18" t="n">
-        <v>118.8861671068078</v>
+        <v>118.8861671068077</v>
       </c>
       <c r="K18" t="n">
         <v>203.1953954956288</v>
       </c>
       <c r="L18" t="n">
-        <v>273.2212851131571</v>
+        <v>273.221285113157</v>
       </c>
       <c r="M18" t="n">
-        <v>318.8363527115864</v>
+        <v>318.8363527115862</v>
       </c>
       <c r="N18" t="n">
-        <v>327.2750022406848</v>
+        <v>327.2750022406847</v>
       </c>
       <c r="O18" t="n">
-        <v>299.3926886886866</v>
+        <v>299.3926886886865</v>
       </c>
       <c r="P18" t="n">
-        <v>240.2890275983564</v>
+        <v>240.2890275983563</v>
       </c>
       <c r="Q18" t="n">
-        <v>160.6268514682017</v>
+        <v>160.6268514682016</v>
       </c>
       <c r="R18" t="n">
-        <v>78.12787621577323</v>
+        <v>78.1278762157732</v>
       </c>
       <c r="S18" t="n">
-        <v>23.37323790433733</v>
+        <v>23.37323790433732</v>
       </c>
       <c r="T18" t="n">
-        <v>5.072020220563403</v>
+        <v>5.072020220563402</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08278596660332004</v>
+        <v>0.08278596660331999</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.054955596278373</v>
+        <v>1.054955596278372</v>
       </c>
       <c r="H19" t="n">
-        <v>9.379514301456812</v>
+        <v>9.379514301456808</v>
       </c>
       <c r="I19" t="n">
-        <v>31.72539193171689</v>
+        <v>31.72539193171688</v>
       </c>
       <c r="J19" t="n">
-        <v>74.58536065688095</v>
+        <v>74.58536065688092</v>
       </c>
       <c r="K19" t="n">
-        <v>122.5666592767055</v>
+        <v>122.5666592767054</v>
       </c>
       <c r="L19" t="n">
-        <v>156.8431256503319</v>
+        <v>156.8431256503318</v>
       </c>
       <c r="M19" t="n">
-        <v>165.3690849693453</v>
+        <v>165.3690849693452</v>
       </c>
       <c r="N19" t="n">
-        <v>161.4369777468533</v>
+        <v>161.4369777468532</v>
       </c>
       <c r="O19" t="n">
-        <v>149.1131782812377</v>
+        <v>149.1131782812376</v>
       </c>
       <c r="P19" t="n">
-        <v>127.5920841171588</v>
+        <v>127.5920841171587</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.33814543018265</v>
+        <v>88.33814543018262</v>
       </c>
       <c r="R19" t="n">
-        <v>47.43463981084391</v>
+        <v>47.43463981084389</v>
       </c>
       <c r="S19" t="n">
-        <v>18.38499889150582</v>
+        <v>18.38499889150581</v>
       </c>
       <c r="T19" t="n">
-        <v>4.507537547734864</v>
+        <v>4.507537547734862</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05754303252427494</v>
+        <v>0.05754303252427492</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.351842535330496</v>
+        <v>2.351842535330495</v>
       </c>
       <c r="H20" t="n">
-        <v>24.08580736495345</v>
+        <v>24.08580736495344</v>
       </c>
       <c r="I20" t="n">
-        <v>90.66940934332904</v>
+        <v>90.66940934332899</v>
       </c>
       <c r="J20" t="n">
-        <v>199.6096953830069</v>
+        <v>199.6096953830068</v>
       </c>
       <c r="K20" t="n">
-        <v>299.1631899035468</v>
+        <v>299.1631899035467</v>
       </c>
       <c r="L20" t="n">
-        <v>371.1383908941676</v>
+        <v>371.1383908941674</v>
       </c>
       <c r="M20" t="n">
-        <v>412.9629705818513</v>
+        <v>412.9629705818511</v>
       </c>
       <c r="N20" t="n">
-        <v>419.6451431853591</v>
+        <v>419.6451431853589</v>
       </c>
       <c r="O20" t="n">
-        <v>396.2590089746664</v>
+        <v>396.2590089746662</v>
       </c>
       <c r="P20" t="n">
-        <v>338.1978963836947</v>
+        <v>338.1978963836946</v>
       </c>
       <c r="Q20" t="n">
-        <v>253.9725355871713</v>
+        <v>253.9725355871712</v>
       </c>
       <c r="R20" t="n">
-        <v>147.7339286599544</v>
+        <v>147.7339286599543</v>
       </c>
       <c r="S20" t="n">
-        <v>53.59261177384373</v>
+        <v>53.59261177384371</v>
       </c>
       <c r="T20" t="n">
         <v>10.29519069840925</v>
@@ -32543,46 +32543,46 @@
         <v>1.258346692370464</v>
       </c>
       <c r="H21" t="n">
-        <v>12.15297989736738</v>
+        <v>12.15297989736737</v>
       </c>
       <c r="I21" t="n">
-        <v>43.32465585573747</v>
+        <v>43.32465585573745</v>
       </c>
       <c r="J21" t="n">
-        <v>118.8861671068078</v>
+        <v>118.8861671068077</v>
       </c>
       <c r="K21" t="n">
         <v>203.1953954956288</v>
       </c>
       <c r="L21" t="n">
-        <v>273.2212851131571</v>
+        <v>273.221285113157</v>
       </c>
       <c r="M21" t="n">
-        <v>318.8363527115864</v>
+        <v>318.8363527115862</v>
       </c>
       <c r="N21" t="n">
-        <v>327.2750022406848</v>
+        <v>327.2750022406847</v>
       </c>
       <c r="O21" t="n">
-        <v>299.3926886886866</v>
+        <v>299.3926886886865</v>
       </c>
       <c r="P21" t="n">
-        <v>240.2890275983564</v>
+        <v>240.2890275983563</v>
       </c>
       <c r="Q21" t="n">
-        <v>160.6268514682017</v>
+        <v>160.6268514682016</v>
       </c>
       <c r="R21" t="n">
-        <v>78.12787621577323</v>
+        <v>78.1278762157732</v>
       </c>
       <c r="S21" t="n">
-        <v>23.37323790433733</v>
+        <v>23.37323790433732</v>
       </c>
       <c r="T21" t="n">
-        <v>5.072020220563403</v>
+        <v>5.072020220563402</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08278596660332004</v>
+        <v>0.08278596660331999</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.054955596278373</v>
+        <v>1.054955596278372</v>
       </c>
       <c r="H22" t="n">
-        <v>9.379514301456812</v>
+        <v>9.379514301456808</v>
       </c>
       <c r="I22" t="n">
-        <v>31.72539193171689</v>
+        <v>31.72539193171688</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58536065688095</v>
+        <v>74.58536065688092</v>
       </c>
       <c r="K22" t="n">
-        <v>122.5666592767055</v>
+        <v>122.5666592767054</v>
       </c>
       <c r="L22" t="n">
-        <v>156.8431256503319</v>
+        <v>156.8431256503318</v>
       </c>
       <c r="M22" t="n">
-        <v>165.3690849693453</v>
+        <v>165.3690849693452</v>
       </c>
       <c r="N22" t="n">
-        <v>161.4369777468533</v>
+        <v>161.4369777468532</v>
       </c>
       <c r="O22" t="n">
-        <v>149.1131782812377</v>
+        <v>149.1131782812376</v>
       </c>
       <c r="P22" t="n">
-        <v>127.5920841171588</v>
+        <v>127.5920841171587</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.33814543018265</v>
+        <v>88.33814543018262</v>
       </c>
       <c r="R22" t="n">
-        <v>47.43463981084391</v>
+        <v>47.43463981084389</v>
       </c>
       <c r="S22" t="n">
-        <v>18.38499889150582</v>
+        <v>18.38499889150581</v>
       </c>
       <c r="T22" t="n">
-        <v>4.507537547734864</v>
+        <v>4.507537547734862</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05754303252427494</v>
+        <v>0.05754303252427492</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34784,13 +34784,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35258,13 +35258,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35413,22 +35413,22 @@
         <v>403.218751429731</v>
       </c>
       <c r="L11" t="n">
-        <v>553.0331904746308</v>
+        <v>553.0331904746306</v>
       </c>
       <c r="M11" t="n">
-        <v>632.130270847411</v>
+        <v>632.1302708474109</v>
       </c>
       <c r="N11" t="n">
-        <v>627.5790040007523</v>
+        <v>627.5790040007522</v>
       </c>
       <c r="O11" t="n">
-        <v>546.9609788157251</v>
+        <v>546.960978815725</v>
       </c>
       <c r="P11" t="n">
         <v>428.7636087999078</v>
       </c>
       <c r="Q11" t="n">
-        <v>243.9818363726265</v>
+        <v>243.9818363726264</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>270.9096387700371</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L12" t="n">
         <v>505.5072506367421</v>
       </c>
       <c r="M12" t="n">
-        <v>642.4073825395679</v>
+        <v>176.702318789568</v>
       </c>
       <c r="N12" t="n">
-        <v>195.9332901573515</v>
+        <v>675.275664500905</v>
       </c>
       <c r="O12" t="n">
-        <v>550.6587635209717</v>
+        <v>478.111898163607</v>
       </c>
       <c r="P12" t="n">
         <v>424.7773888239633</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.64507738218018</v>
+        <v>20.64507738218015</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.180450788734454</v>
+        <v>6.180450788734486</v>
       </c>
       <c r="K13" t="n">
         <v>125.2514376993489</v>
@@ -35586,7 +35586,7 @@
         <v>149.8249136305785</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.13037242701454</v>
+        <v>27.13037242701457</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>187.6604060283943</v>
       </c>
       <c r="K14" t="n">
-        <v>403.218751429731</v>
+        <v>403.2187514297309</v>
       </c>
       <c r="L14" t="n">
-        <v>553.0331904746308</v>
+        <v>553.0331904746306</v>
       </c>
       <c r="M14" t="n">
-        <v>632.130270847411</v>
+        <v>632.1302708474109</v>
       </c>
       <c r="N14" t="n">
-        <v>627.5790040007523</v>
+        <v>627.5790040007521</v>
       </c>
       <c r="O14" t="n">
-        <v>546.9609788157251</v>
+        <v>546.9609788157248</v>
       </c>
       <c r="P14" t="n">
-        <v>428.7636087999078</v>
+        <v>428.7636087999077</v>
       </c>
       <c r="Q14" t="n">
-        <v>243.9818363726265</v>
+        <v>243.9818363726264</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>65.35395652126985</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L15" t="n">
-        <v>231.7205585419558</v>
+        <v>505.507250636742</v>
       </c>
       <c r="M15" t="n">
-        <v>642.4073825395679</v>
+        <v>642.4073825395678</v>
       </c>
       <c r="N15" t="n">
-        <v>675.2756645009051</v>
+        <v>195.9332901573514</v>
       </c>
       <c r="O15" t="n">
         <v>550.6587635209717</v>
       </c>
       <c r="P15" t="n">
-        <v>424.7773888239633</v>
+        <v>365.8678340601523</v>
       </c>
       <c r="Q15" t="n">
-        <v>20.64507738218018</v>
+        <v>20.64507738218012</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.180450788734461</v>
+        <v>6.180450788734476</v>
       </c>
       <c r="K16" t="n">
         <v>125.2514376993489</v>
       </c>
       <c r="L16" t="n">
-        <v>209.3874211591744</v>
+        <v>209.3874211591743</v>
       </c>
       <c r="M16" t="n">
         <v>229.9072321797121</v>
       </c>
       <c r="N16" t="n">
-        <v>230.5234203746082</v>
+        <v>230.5234203746081</v>
       </c>
       <c r="O16" t="n">
         <v>198.6525764438036</v>
@@ -35823,7 +35823,7 @@
         <v>149.8249136305785</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.13037242701454</v>
+        <v>27.13037242701456</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>187.6604060283943</v>
       </c>
       <c r="K17" t="n">
-        <v>403.218751429731</v>
+        <v>403.2187514297309</v>
       </c>
       <c r="L17" t="n">
-        <v>553.0331904746308</v>
+        <v>553.0331904746306</v>
       </c>
       <c r="M17" t="n">
-        <v>632.130270847411</v>
+        <v>632.1302708474109</v>
       </c>
       <c r="N17" t="n">
-        <v>627.5790040007523</v>
+        <v>627.5790040007521</v>
       </c>
       <c r="O17" t="n">
-        <v>546.9609788157251</v>
+        <v>546.9609788157248</v>
       </c>
       <c r="P17" t="n">
-        <v>428.7636087999078</v>
+        <v>428.7636087999077</v>
       </c>
       <c r="Q17" t="n">
-        <v>243.9818363726265</v>
+        <v>243.9818363726264</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126977</v>
       </c>
       <c r="L18" t="n">
-        <v>505.5072506367421</v>
+        <v>505.507250636742</v>
       </c>
       <c r="M18" t="n">
-        <v>642.4073825395679</v>
+        <v>642.4073825395678</v>
       </c>
       <c r="N18" t="n">
-        <v>675.2756645009051</v>
+        <v>675.2756645009049</v>
       </c>
       <c r="O18" t="n">
-        <v>156.7964442442422</v>
+        <v>550.6587635209717</v>
       </c>
       <c r="P18" t="n">
-        <v>280.3877789933281</v>
+        <v>150.9906967291775</v>
       </c>
       <c r="Q18" t="n">
-        <v>20.64507738218018</v>
+        <v>20.64507738218012</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.94395593311293</v>
+        <v>63.94395593311299</v>
       </c>
       <c r="K19" t="n">
         <v>183.0149428437274</v>
@@ -36051,16 +36051,16 @@
         <v>287.6707373240906</v>
       </c>
       <c r="N19" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189867</v>
       </c>
       <c r="O19" t="n">
         <v>256.4160815881821</v>
       </c>
       <c r="P19" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749571</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139308</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>187.6604060283943</v>
       </c>
       <c r="K20" t="n">
-        <v>403.218751429731</v>
+        <v>403.2187514297309</v>
       </c>
       <c r="L20" t="n">
-        <v>553.0331904746308</v>
+        <v>553.0331904746306</v>
       </c>
       <c r="M20" t="n">
-        <v>632.130270847411</v>
+        <v>632.1302708474109</v>
       </c>
       <c r="N20" t="n">
-        <v>627.5790040007523</v>
+        <v>627.5790040007521</v>
       </c>
       <c r="O20" t="n">
-        <v>546.9609788157251</v>
+        <v>546.9609788157248</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7636087999078</v>
+        <v>428.7636087999077</v>
       </c>
       <c r="Q20" t="n">
-        <v>243.9818363726249</v>
+        <v>243.9818363726264</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>329.8191935338484</v>
+        <v>162.4076097299432</v>
       </c>
       <c r="L21" t="n">
-        <v>505.5072506367421</v>
+        <v>134.6669053332828</v>
       </c>
       <c r="M21" t="n">
-        <v>642.4073825395679</v>
+        <v>642.4073825395678</v>
       </c>
       <c r="N21" t="n">
-        <v>195.9332901573515</v>
+        <v>675.2756645009049</v>
       </c>
       <c r="O21" t="n">
         <v>550.6587635209717</v>
       </c>
       <c r="P21" t="n">
-        <v>365.8678340601523</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q21" t="n">
-        <v>20.64507738218018</v>
+        <v>20.64507738218012</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,16 +36282,16 @@
         <v>183.0149428437274</v>
       </c>
       <c r="L22" t="n">
-        <v>267.1509263035529</v>
+        <v>267.1509263035528</v>
       </c>
       <c r="M22" t="n">
-        <v>287.6707373240907</v>
+        <v>287.6707373240906</v>
       </c>
       <c r="N22" t="n">
         <v>288.2869255189867</v>
       </c>
       <c r="O22" t="n">
-        <v>256.4160815881822</v>
+        <v>256.4160815881821</v>
       </c>
       <c r="P22" t="n">
         <v>207.5884187749571</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126977</v>
       </c>
       <c r="L24" t="n">
         <v>505.507250636742</v>
       </c>
       <c r="M24" t="n">
-        <v>255.2809642593581</v>
+        <v>642.4073825395678</v>
       </c>
       <c r="N24" t="n">
-        <v>195.9332901573514</v>
+        <v>675.2756645009049</v>
       </c>
       <c r="O24" t="n">
         <v>550.6587635209717</v>
       </c>
       <c r="P24" t="n">
-        <v>424.7773888239633</v>
+        <v>150.9906967291775</v>
       </c>
       <c r="Q24" t="n">
-        <v>230.7223651180292</v>
+        <v>20.64507738218012</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.94395593311299</v>
+        <v>63.94395593311293</v>
       </c>
       <c r="K25" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L25" t="n">
         <v>267.1509263035528</v>
@@ -36525,16 +36525,16 @@
         <v>287.6707373240906</v>
       </c>
       <c r="N25" t="n">
-        <v>288.2869255189867</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O25" t="n">
         <v>256.4160815881821</v>
       </c>
       <c r="P25" t="n">
-        <v>207.5884187749571</v>
+        <v>207.588418774957</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.89387757139308</v>
+        <v>84.89387757139302</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>505.507250636742</v>
       </c>
       <c r="M27" t="n">
-        <v>642.4073825395678</v>
+        <v>176.7023187895679</v>
       </c>
       <c r="N27" t="n">
-        <v>202.6691911538711</v>
+        <v>274.5119356271415</v>
       </c>
       <c r="O27" t="n">
-        <v>156.7964442442421</v>
+        <v>550.6587635209717</v>
       </c>
       <c r="P27" t="n">
         <v>424.7773888239633</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.94395593311305</v>
+        <v>63.94395593311299</v>
       </c>
       <c r="K28" t="n">
-        <v>183.0149428437275</v>
+        <v>183.0149428437274</v>
       </c>
       <c r="L28" t="n">
-        <v>267.1509263035529</v>
+        <v>267.1509263035528</v>
       </c>
       <c r="M28" t="n">
-        <v>287.6707373240907</v>
+        <v>287.6707373240906</v>
       </c>
       <c r="N28" t="n">
         <v>288.2869255189867</v>
       </c>
       <c r="O28" t="n">
-        <v>256.4160815881822</v>
+        <v>256.4160815881821</v>
       </c>
       <c r="P28" t="n">
         <v>207.5884187749571</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.89387757139313</v>
+        <v>84.89387757139308</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>505.507250636742</v>
       </c>
       <c r="M30" t="n">
-        <v>642.4073825395678</v>
+        <v>176.7023187895679</v>
       </c>
       <c r="N30" t="n">
-        <v>202.6691911538711</v>
+        <v>274.5119356271415</v>
       </c>
       <c r="O30" t="n">
-        <v>156.7964442442421</v>
+        <v>550.6587635209717</v>
       </c>
       <c r="P30" t="n">
         <v>424.7773888239633</v>
@@ -37154,13 +37154,13 @@
         <v>505.507250636742</v>
       </c>
       <c r="M33" t="n">
-        <v>642.4073825395678</v>
+        <v>176.7023187895679</v>
       </c>
       <c r="N33" t="n">
-        <v>202.6691911538711</v>
+        <v>274.5119356271415</v>
       </c>
       <c r="O33" t="n">
-        <v>156.7964442442421</v>
+        <v>550.6587635209717</v>
       </c>
       <c r="P33" t="n">
         <v>424.7773888239633</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>63.94395593311299</v>
+        <v>63.94395593311305</v>
       </c>
       <c r="K34" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437275</v>
       </c>
       <c r="L34" t="n">
-        <v>267.1509263035528</v>
+        <v>267.1509263035529</v>
       </c>
       <c r="M34" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240907</v>
       </c>
       <c r="N34" t="n">
         <v>288.2869255189867</v>
       </c>
       <c r="O34" t="n">
-        <v>256.4160815881821</v>
+        <v>256.4160815881822</v>
       </c>
       <c r="P34" t="n">
         <v>207.5884187749571</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.89387757139308</v>
+        <v>84.89387757139313</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>632.1302708474109</v>
       </c>
       <c r="N35" t="n">
-        <v>627.5790040007527</v>
+        <v>627.5790040007521</v>
       </c>
       <c r="O35" t="n">
         <v>546.9609788157248</v>
@@ -37388,19 +37388,19 @@
         <v>329.8191935338484</v>
       </c>
       <c r="L36" t="n">
-        <v>505.507250636742</v>
+        <v>134.6669053332828</v>
       </c>
       <c r="M36" t="n">
         <v>642.4073825395678</v>
       </c>
       <c r="N36" t="n">
-        <v>202.6691911538711</v>
+        <v>675.2756645009049</v>
       </c>
       <c r="O36" t="n">
         <v>156.7964442442421</v>
       </c>
       <c r="P36" t="n">
-        <v>424.7773888239633</v>
+        <v>323.0112607803892</v>
       </c>
       <c r="Q36" t="n">
         <v>230.7223651180292</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>63.94395593311296</v>
+        <v>63.94395593311299</v>
       </c>
       <c r="K37" t="n">
         <v>183.0149428437274</v>
@@ -37473,16 +37473,16 @@
         <v>287.6707373240906</v>
       </c>
       <c r="N37" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189867</v>
       </c>
       <c r="O37" t="n">
         <v>256.4160815881821</v>
       </c>
       <c r="P37" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749571</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.89387757139305</v>
+        <v>84.89387757139308</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>632.1302708474109</v>
       </c>
       <c r="N38" t="n">
-        <v>627.5790040007527</v>
+        <v>627.5790040007521</v>
       </c>
       <c r="O38" t="n">
         <v>546.9609788157248</v>
@@ -37561,7 +37561,7 @@
         <v>428.7636087999077</v>
       </c>
       <c r="Q38" t="n">
-        <v>243.9818363726264</v>
+        <v>243.9818363726267</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>329.8191935338484</v>
       </c>
       <c r="L39" t="n">
-        <v>505.507250636742</v>
+        <v>134.6669053332828</v>
       </c>
       <c r="M39" t="n">
         <v>642.4073825395678</v>
       </c>
       <c r="N39" t="n">
-        <v>202.6691911538711</v>
+        <v>675.2756645009049</v>
       </c>
       <c r="O39" t="n">
         <v>156.7964442442421</v>
       </c>
       <c r="P39" t="n">
-        <v>424.7773888239633</v>
+        <v>323.0112607803892</v>
       </c>
       <c r="Q39" t="n">
         <v>230.7223651180292</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>63.94395593311293</v>
+        <v>63.94395593311296</v>
       </c>
       <c r="K40" t="n">
-        <v>183.0149428437273</v>
+        <v>183.0149428437274</v>
       </c>
       <c r="L40" t="n">
         <v>267.1509263035528</v>
@@ -37719,7 +37719,7 @@
         <v>207.588418774957</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139305</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>329.8191935338484</v>
       </c>
       <c r="L42" t="n">
-        <v>505.507250636742</v>
+        <v>134.6669053332828</v>
       </c>
       <c r="M42" t="n">
         <v>642.4073825395678</v>
       </c>
       <c r="N42" t="n">
-        <v>202.6691911538711</v>
+        <v>675.2756645009049</v>
       </c>
       <c r="O42" t="n">
         <v>156.7964442442421</v>
       </c>
       <c r="P42" t="n">
-        <v>424.7773888239633</v>
+        <v>323.0112607803892</v>
       </c>
       <c r="Q42" t="n">
         <v>230.7223651180292</v>
@@ -38020,7 +38020,7 @@
         <v>403.2187514297309</v>
       </c>
       <c r="L44" t="n">
-        <v>553.0331904746306</v>
+        <v>553.0331904746308</v>
       </c>
       <c r="M44" t="n">
         <v>632.1302708474109</v>
@@ -38099,19 +38099,19 @@
         <v>329.8191935338484</v>
       </c>
       <c r="L45" t="n">
-        <v>505.507250636742</v>
+        <v>134.6669053332828</v>
       </c>
       <c r="M45" t="n">
         <v>642.4073825395678</v>
       </c>
       <c r="N45" t="n">
-        <v>202.6691911538711</v>
+        <v>675.2756645009049</v>
       </c>
       <c r="O45" t="n">
         <v>156.7964442442421</v>
       </c>
       <c r="P45" t="n">
-        <v>424.7773888239633</v>
+        <v>323.0112607803892</v>
       </c>
       <c r="Q45" t="n">
         <v>230.7223651180292</v>
